--- a/artifacts/recipes/new_data/allrecipescom/italian/italian_appetizers.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/italian/italian_appetizers.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699640139-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Italian Appetizers</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699640144-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gqGCX89K-w23RAC0QQOEr7_BLw0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/5125673-eddcd2e6a2a849e79ecb75d05c1ab6bd.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222714/mushroom-and-tomato-bruschetta/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Mushroom and Tomato Bruschetta</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 loaf Italian bread, cut into 3/4-inch thick slices\n\n\n½ cup olive oil\n\n\n½ pound diced fresh mushrooms\n\n\n5  green onions, minced\n\n\n4 cloves garlic, minced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon chopped fresh parsley\n\n\n3 large tomatoes, diced\n\n\n1 teaspoon balsamic vinegar\n\n\n2 cups shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 loaf Italian bread, cut into 3/4-inch thick slices\n\n\n½ cup olive oil\n\n\n½ pound diced fresh mushrooms\n\n\n5  green onions, minced\n\n\n4 cloves garlic, minced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon chopped fresh parsley\n\n\n3 large tomatoes, diced\n\n\n1 teaspoon balsamic vinegar\n\n\n2 cups shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Set an oven rack about 6 inches from the heat source and preheat the oven's broiler. Arrange bread slices on a baking sheet in a single layer."},{"recipe_directions":"Broil bread in the preheated oven until toasted, 1 to 2 minutes; watch carefully to prevent burning. Remove from the oven and place the baking sheet onto a wire rack. Keep the broiler on."},{"recipe_directions":"Heat olive oil in a skillet over medium heat. Add mushrooms, green onions, garlic, salt, black pepper, and parsley; cook and stir until mushrooms are soft and juicy, about 5 minutes. Remove from the heat."},{"recipe_directions":"While the mushrooms are cooking, mix tomatoes and balsamic vinegar together in a bowl."},{"recipe_directions":"Top each toasted bread slice with mushroom mixture, then spread tomato mixture over top and sprinkle with mozzarella cheese."},{"recipe_directions":"Return to the oven and broil until heated through and cheese has melted, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"},{"recipe_tags":"Mushrooms"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"296\nCalories\n\n\n14g \nFat\n\n\n32g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699640150-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zYuOu0eHKFMQjN-GNyLLpKe0PRU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2513602-8bd0662eb34043278488390922b7609f.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244649/italian-popcorn-with-parmesan/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Italian Popcorn with Parmesan</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n2 quarts"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 tablespoons unpopped popcorn\n\n\n¼ cup olive oil\n\n\n2 tablespoons olive oil\n\n\n1 ½ tablespoons Italian seasoning\n\n\n1 ½ teaspoons garlic salt\n\n\n1 cup freshly grated Parmigiano cheese"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 tablespoons unpopped popcorn\n\n\n¼ cup olive oil\n\n\n2 tablespoons olive oil\n\n\n1 ½ tablespoons Italian seasoning\n\n\n1 ½ teaspoons garlic salt\n\n\n1 cup freshly grated Parmigiano cheese'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine popcorn and 1/4 cup olive oil in a 2-quart saucepan; cover. Cook over high heat, continuously shaking the pan, until popcorn is popped and the lid begins to lift, about 5 minutes. Pour popcorn into a large serving bowl."},{"recipe_directions":"Add 2 tablespoons olive oil, Italian seasoning, and garlic salt to popcorn; toss to coat. Add Parmesan cheese and mix well."},{"recipe_directions":"Use freshly ground Italian seasoning and garlic salt for the best results. Adjust salt according to taste."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Popcorn Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"227\nCalories\n\n\n18g \nFat\n\n\n11g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699640160-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vaz8MxX2kKwGEHK2x0ebAGLXens=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3944582-f71cfed0e0e04684b0526a1f3dd2d6bb.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/81172/fig-and-goat-cheese-pizza/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Fig and Goat Cheese Pizza</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n18 mins\n\n\nTotal Time:\n 1 hr 18 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup lukewarm water\n\n\n1 (.25 ounce) envelope active dry yeast\n\n\n3 cups all-purpose flour\n\n\n1 teaspoon vegetable oil\n\n\n1 teaspoon salt\n\n\n8  dried figs\n\n\n1 medium red onion, thinly sliced\n\n\n1 tablespoon olive oil\n\n\n1 pinch salt\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon fennel seeds\n\n\n4 ounces goat cheese\n\n\n1 tablespoon olive oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup lukewarm water\n\n\n1 (.25 ounce) envelope active dry yeast\n\n\n3 cups all-purpose flour\n\n\n1 teaspoon vegetable oil\n\n\n1 teaspoon salt\n\n\n8  dried figs\n\n\n1 medium red onion, thinly sliced\n\n\n1 tablespoon olive oil\n\n\n1 pinch salt\n\n\n1 teaspoon dried thyme\n\n\n1 teaspoon fennel seeds\n\n\n4 ounces goat cheese\n\n\n1 tablespoon olive oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour water into a large bowl and sprinkle yeast over top. Let stand for a few minutes to dissolve. Mix in oil, salt, and flour to make a dough. When dough is too stiff to stir, turn out onto a floured surface, and knead for about 5 minutes. Place into an oiled bowl, and cover with a clean towel. Set aside to rise for about 45 minutes."},{"recipe_directions":"Place figs into a small bowl, and pour boiling water over them. Let stand for about 10 minutes, then drain and chop. Set aside."},{"recipe_directions":"Meanwhile, heat 1 tablespoon of olive oil in a skillet over medium heat. Add onions; cook and stir until they are wilted and soft. Reduce heat to low, and season with salt. Continue to cook and stir until onions are dark brown, 5 to 10 minutes. Stir in thyme, fennel seed, and figs, and remove from the heat."},{"recipe_directions":"Preheat the oven to 450 degrees F (220 degrees C). Punch down pizza dough, and stretch into a circle about 1/4-inch thick. Place on a lightly greased pizza pan or baking sheet. Brush surface lightly with remaining olive oil. Spread onion and fig mixture over crust. It will be sparse, but there is plenty of flavor. Dot with pieces of goat cheese."},{"recipe_directions":"Bake for 15 to 18 minutes in the preheated oven, or until crust has turned golden brown at edges."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"630\nCalories\n\n\n18g \nFat\n\n\n101g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699640168-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NsqwuLPkrk2gTYvPLtASW5GhlcY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/69504-294725067a844ea88a5ed0413bfb509e.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23938/hoagie-dip/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Hoagie Dip</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n24"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups mayonnaise\n\n\n2 teaspoons dried oregano\n\n\n1 pound processed American cheese, sliced\n\n\n½ pound cooked ham, thinly sliced\n\n\n½ pound Genoa salami, thinly sliced\n\n\n1 medium onion, diced\n\n\n½ head iceberg lettuce, shredded\n\n\n2 medium tomatoes, diced\n\n\n12  hoagie rolls, torn into pieces for dipping"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mayonnaise\n\n\n2 teaspoons dried oregano\n\n\n1 pound processed American cheese, sliced\n\n\n½ pound cooked ham, thinly sliced\n\n\n½ pound Genoa salami, thinly sliced\n\n\n1 medium onion, diced\n\n\n½ head iceberg lettuce, shredded\n\n\n2 medium tomatoes, diced\n\n\n12  hoagie rolls, torn into pieces for dipping'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir mayonnaise and oregano together in a medium bowl."},{"recipe_directions":"Tear American cheese, ham, and salami into small pieces; place into a large bowl. Stir in mayonnaise mixture, 1/2 cup at a time, until cheese and meats are well coated. Stir in onion, then stir in lettuce and tomatoes."},{"recipe_directions":"Serve with bread pieces for dipping."},{"recipe_directions":"If not serving right away, refrigerate dip after adding the onion in Step 2, and stir in lettuce and tomatoes just before serving."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"},{"recipe_tags":"Cold Cheese Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"264\nCalories\n\n\n25g \nFat\n\n\n2g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699640176-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/X56bC1xVIpEUrzvczbwQYxtLdtc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1328414-42a1dbbb4c4541f7b3c74c937964b17b.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238906/antipasto-on-a-stick/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Antipasto on a Stick</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 antipasto sticks"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  bamboo toothpicks\n\n\n8 slices salami, rolled\n\n\n8 (1/2 inch) cubes mozzarella cheese\n\n\n8  pitted black olives\n\n\n4  grape tomatoes, halved\n\n\n4  marinated artichoke hearts, drained and halved\n\n\n8 leaves fresh basil, rolled\n\n\n2 tablespoons olive oil, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  bamboo toothpicks\n\n\n8 slices salami, rolled\n\n\n8 (1/2 inch) cubes mozzarella cheese\n\n\n8  pitted black olives\n\n\n4  grape tomatoes, halved\n\n\n4  marinated artichoke hearts, drained and halved\n\n\n8 leaves fresh basil, rolled\n\n\n2 tablespoons olive oil, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Thread ingredients onto toothpicks in the following order: salami roll, mozzarella cube, olive, tomato half, artichoke heart, and basil leaf. Arrange toothpicks on a serving platter and drizzle olive oil over top."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Tapas"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"151\nCalories\n\n\n13g \nFat\n\n\n1g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699640188-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/x-QeTDjA3eD9D6PKa3bwIv1s-Z4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1840057-b42fffaebe244a50a1dce461aa26023f.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/85736/tia-and-davids-deep-fried-tortellini/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Tia and David's Deep-Fried Tortellini</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package refrigerated or fresh cheese tortellini\n\n\n¼ cup bread crumbs\n\n\n¼ cup cornflake crumbs\n\n\n  salt and pepper to taste\n\n\n  dried parsley, to taste\n\n\n  oil for deep frying\n\n\n2 large eggs, lightly beaten"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package refrigerated or fresh cheese tortellini\n\n\n¼ cup bread crumbs\n\n\n¼ cup cornflake crumbs\n\n\n  salt and pepper to taste\n\n\n  dried parsley, to taste\n\n\n  oil for deep frying\n\n\n2 large eggs, lightly beaten'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook tortellini according to package directions. Rinse under cool water and allow to cool slightly."},{"recipe_directions":"Combine bread crumbs, cornflake crumbs, salt, pepper, and parsley in a large resealable plastic bag."},{"recipe_directions":"Heat oil in a deep fryer or deep skillet over medium heat."},{"recipe_directions":"Dip tortellini in egg and place in resealable bag in small batches. Shake to coat and set aside on a plate until the oil is hot."},{"recipe_directions":"Deep-fry breaded tortellini in batches until golden brown."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Pasta Appetizer Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"419\nCalories\n\n\n23g \nFat\n\n\n41g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699640194-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/flP2_me_t6fWno7dXCkFlJtGz2E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/773860-cream-cheese-and-parmesan-bread-spread-MrsFisher0729-4x3-1-bd1a89f9dc1b4987bb0208f005f0916a.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/87125/cream-cheese-and-parmesan-bread-spread/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Cream Cheese and Parmesan Bread Spread</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6 \n\n\nYield:\n3/4 cup"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup softened butter\n\n\n½ cup cream cheese, softened\n\n\n¼ cup Parmesan cheese\n\n\n4 cloves garlic, pressed\n\n\n1 ½ teaspoons Italian seasoning"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup softened butter\n\n\n½ cup cream cheese, softened\n\n\n¼ cup Parmesan cheese\n\n\n4 cloves garlic, pressed\n\n\n1 ½ teaspoons Italian seasoning'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix butter, cream cheese, Parmesan cheese, garlic, and Italian seasoning in a bowl until evenly blended."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"},{"recipe_tags":"Cream Cheese Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n23g \nFat\n\n\n2g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699640201-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HVuZYYLGdlruwNIEC3MjPeYQfG4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/966354-1dd0da3230f844ae9b543246351f8faf.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25521/sun-dried-tomato-spread/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sun-Dried Tomato Spread</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (6 ounce) cans tomato paste\n\n\n2 tablespoons chopped fresh basil\n\n\n¼ cup olive oil\n\n\n1 teaspoon crushed garlic\n\n\n¾ cup sun-dried tomatoes, packed in oil, drained\n\n\n½ teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (6 ounce) cans tomato paste\n\n\n2 tablespoons chopped fresh basil\n\n\n¼ cup olive oil\n\n\n1 teaspoon crushed garlic\n\n\n¾ cup sun-dried tomatoes, packed in oil, drained\n\n\n½ teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a blender or food processor, mix tomato paste, basil, olive oil, garlic, sun-dried tomatoes, salt, white sugar and garlic salt. Blend to the consistency of a spreadable paste. Chill in the refrigerator until serving."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"60\nCalories\n\n\n4g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699640207-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kNSGJLDuNB2Od31AP4Y0-wWcczw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2451285-grilled-prosciutto-wrapped-peaches-with-burrata-and-basil-Chef-John-1x1-1-477bfe500fbd4e98ba8c7a79c8ce93ec.jpg"
@@ -725,59 +1034,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244601/grilled-prosciutto-wrapped-peaches-with-burrata-and-basil/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Grilled Prosciutto-Wrapped Peaches with Burrata and Basil</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n7 mins\n\n\nTotal Time:\n22 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  ripe, sweet (but not soft) freestone peaches\n\n\n3 thin slices  prosciutto, or more as needed, torn into ribbons\n\n\n8 small bamboo skewers, soaked in water 20 minutes\n\n\n6 ounces burrata cheese\n\n\n1 tablespoon extra virgin olive oil, for drizzling\n\n\n  Coarse sea salt to taste\n\n\n  Freshly ground black pepper, to taste\n\n\n1 tablespoon finely sliced fresh basil leaves"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  ripe, sweet (but not soft) freestone peaches\n\n\n3 thin slices  prosciutto, or more as needed, torn into ribbons\n\n\n8 small bamboo skewers, soaked in water 20 minutes\n\n\n6 ounces burrata cheese\n\n\n1 tablespoon extra virgin olive oil, for drizzling\n\n\n  Coarse sea salt to taste\n\n\n  Freshly ground black pepper, to taste\n\n\n1 tablespoon finely sliced fresh basil leaves'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill at medium-high heat and lightly oil the grate."},{"recipe_directions":"Cut peaches in half and remove peach stones. Cut each half in half again."},{"recipe_directions":"Wrap prosciutto around each peach section; secure with small bamboo skewers."},{"recipe_directions":"Grill peaches, turning often, until prosciutto gets a little crisp around the edges and peaches begin to caramelize, about 6 minutes."},{"recipe_directions":"To serve, spoon burrata onto serving plates. Remove peaches from skewers; place several grilled peaches around cheese. Drizzle with olive oil. Top with a sprinkle of sea salt and pepper; garnish with basil."},{"recipe_directions":"Two peaches are enough for two large or four small servings."},{"recipe_directions":"Instead of bamboo skewers, you can also use wooden toothpicks to attach the prosciutto to the peaches."},{"recipe_directions":"If you can't find burrata cheese, you can use fresh mozzarella or ricotta cheese."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Antipasto Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"183\nCalories\n\n\n14g \nFat\n\n\n3g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699640212-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aufD5Hi_1RlpPYK8yIlIJT2EJ5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(659x884:661x886):format(webp)/18509-tapenade-roqwoods-4x3-1-e5ad0367f244424889c71a2bd15180e6.jpg"
@@ -791,59 +1096,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14849/tapenade/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Tapenade</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¾ cups whole, pitted kalamata olives\n\n\n1 (2 ounce) can anchovy fillets, rinsed\n\n\n3 tablespoons lemon juice\n\n\n2 tablespoons capers\n\n\n1 clove garlic, chopped\n\n\n1 teaspoon chopped fresh thyme\n\n\n1 teaspoon chopped fresh rosemary\n\n\n4 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¾ cups whole, pitted kalamata olives\n\n\n1 (2 ounce) can anchovy fillets, rinsed\n\n\n3 tablespoons lemon juice\n\n\n2 tablespoons capers\n\n\n1 clove garlic, chopped\n\n\n1 teaspoon chopped fresh thyme\n\n\n1 teaspoon chopped fresh rosemary\n\n\n4 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place olives, anchovies, lemon juice, capers, garlic, thyme, and rosemary into a blender. Turn the blender on; drizzle in olive oil until a thick, chunky paste is formed, about 5 seconds."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n20g \nFat\n\n\n5g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699640216-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Pyr0gW21WSPR0Iid5x8j6HsF7Xo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/112973-9f9f1bad73094bfdaf290fae2b9e9097.jpg"
@@ -856,59 +1157,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/38425/dip-for-the-stars/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Dip for the Stars</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n30 \n\n\nYield:\n3 3/4 cups"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ pound feta cheese, crumbled\n\n\n1 cup unsalted butter\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n2 cloves garlic, minced\n\n\n1  shallot, minced\n\n\n3 tablespoons dry vermouth\n\n\n  ground white pepper, to taste\n\n\n¾ cup pesto sauce\n\n\n½ cup pine nuts, toasted\n\n\n1 cup chopped sun-dried tomatoes"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ pound feta cheese, crumbled\n\n\n1 cup unsalted butter\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n2 cloves garlic, minced\n\n\n1  shallot, minced\n\n\n3 tablespoons dry vermouth\n\n\n  ground white pepper, to taste\n\n\n¾ cup pesto sauce\n\n\n½ cup pine nuts, toasted\n\n\n1 cup chopped sun-dried tomatoes'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Oil a medium bowl or gelatin mold, then line with plastic wrap for easy removal."},{"recipe_directions":"In a food processor, blend feta, butter, cream cheese, garlic, shallot, vermouth, and white pepper until smooth."},{"recipe_directions":"Layer ingredients into the mold as follows: 1/2 each of the pesto, pine nuts, sun-dried tomatoes, and cheese mixture. Repeat layers once more. Pat down to press ingredients into the mold, and refrigerate for at least 1 hour before serving."},{"recipe_directions":"Turn the dip out onto a serving plate, remove the plastic wrap, and serve."},{"recipe_directions":"Vodka or gin may be substituted for the vermouth."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"},{"recipe_tags":"Cold Cheese Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n15g \nFat\n\n\n3g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699640225-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vK5WjVomcUKMDId57ZEygY_EfCM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/622264-fc726ef9ea5c4e13bcce7f59b7471788.jpg"
@@ -921,59 +1218,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27055/garlic-bread-fantastique/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Garlic Bread Fantastique</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter, softened\n\n\n2 tablespoons mayonnaise\n\n\n3 cloves garlic, chopped\n\n\n2 teaspoons dried oregano\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n¼ teaspoon sage\n\n\n1  French baguette, halved lengthwise\n\n\n2 tablespoons grated Parmesan cheese, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter, softened\n\n\n2 tablespoons mayonnaise\n\n\n3 cloves garlic, chopped\n\n\n2 teaspoons dried oregano\n\n\n½ teaspoon salt\n\n\n½ teaspoon black pepper\n\n\n¼ teaspoon sage\n\n\n1  French baguette, halved lengthwise\n\n\n2 tablespoons grated Parmesan cheese, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Set an oven rack about 6 inches from the heat source and preheat the oven's broiler."},{"recipe_directions":"Mix butter, mayonnaise, garlic, oregano, salt, pepper, and sage in a bowl until well combined. Spread mixture evenly on baguette halves, then sprinkle Parmesan cheese over top."},{"recipe_directions":"Place baguette under the preheated broiler until lightly toasted, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Garlic Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"399\nCalories\n\n\n21g \nFat\n\n\n44g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699640234-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WiQ62h41cU7d496MEQWu74boY9s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1905226-garlic-roasted-tomato-spread-Baking-Nana-4x3-1-8efdcd69b0f7489d88561dc2dca65d91.jpg"
@@ -987,59 +1280,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230845/garlic-roasted-tomato-spread/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Garlic Roasted Tomato Spread</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n8 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds Roma tomatoes, halved lengthwise\n\n\n½ cup olive oil\n\n\n1 clove garlic, crushed\n\n\n1 tablespoon dried oregano\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds Roma tomatoes, halved lengthwise\n\n\n½ cup olive oil\n\n\n1 clove garlic, crushed\n\n\n1 tablespoon dried oregano\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 250 degrees F (120 degrees C)."},{"recipe_directions":"Arrange tomatoes, cut-side up, in a shallow baking dish; drizzle with olive oil and sprinkle garlic, oregano, sugar, and salt evenly on top."},{"recipe_directions":"Bake in the preheated oven for 1 hour."},{"recipe_directions":"Turn tomatoes over and continue baking until caramelized and very soft, 1 to 1 1/2 hours. Remove from the oven and set aside to cool to room temperature, about 1 hour."},{"recipe_directions":"Transfer tomato mixture to a blender or food processor; purée until smooth."},{"recipe_directions":"Try this spread on the Ciabatta Sandwich"},{"recipe_directions":"or the Giardino Grinder."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"144\nCalories\n\n\n14g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699640241-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IRvXnpbDKwShVaJoXBJNNWzJ_ug=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/12859-15f92a02d5af434e94b1105851232cb6.jpg"
@@ -1052,59 +1341,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20547/bruschetta-al-pomodoro/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bruschetta al Pomodoro</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  seeded, chopped roma (plum) tomatoes\n\n\n5 leaves chopped fresh basil\n\n\n2 cloves minced garlic\n\n\n1 pinch dried oregano\n\n\n1 dash crushed red pepper\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n1 tablespoon olive oil\n\n\n1 (1 pound) loaf French or Italian-style bread"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  seeded, chopped roma (plum) tomatoes\n\n\n5 leaves chopped fresh basil\n\n\n2 cloves minced garlic\n\n\n1 pinch dried oregano\n\n\n1 dash crushed red pepper\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n1 tablespoon olive oil\n\n\n1 (1 pound) loaf French or Italian-style bread'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven broiler."},{"recipe_directions":"Combine tomatoes, basil, garlic, oregano, red pepper, salt, pepper, and olive oil in a mixing bowl. Use more olive oil, if necessary, to coat entire mixture. Allow mixture to sit for 10 minutes."},{"recipe_directions":"Slice bread to 1/2-inch thickness; arrange on a baking sheet in a single layer."},{"recipe_directions":"Place the baking sheet under the preheated broiler until bread slices are lightly browned, about 1 minute per side."},{"recipe_directions":"Remove the baking sheet from the oven. Spread tomato mixture on each piece of toasted bread. Return to the oven and broil until tomato mixture is hot but not cooked, 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"127\nCalories\n\n\n2g \nFat\n\n\n23g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699640250-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GBEtXV6IZBuWTXRiASYSBT_2P60=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6631442-06c9d2a032ea476cbdc4cdbd0a54e239.jpg"
@@ -1117,59 +1402,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33234/crostini-with-mozzarella-and-tomato/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Crostini with Mozzarella and Tomato</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n3 mins\n\n\nTotal Time:\n18 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  French baguette, cut into diagonal 1/2 inch slices\n\n\n3 tablespoons extra virgin olive oil\n\n\n4 cloves garlic, halved\n\n\n6  plum tomatoes, seeded and chopped\n\n\n1 bunch fresh basil, julienned\n\n\n1 pound fresh mozzarella cheese, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  French baguette, cut into diagonal 1/2 inch slices\n\n\n3 tablespoons extra virgin olive oil\n\n\n4 cloves garlic, halved\n\n\n6  plum tomatoes, seeded and chopped\n\n\n1 bunch fresh basil, julienned\n\n\n1 pound fresh mozzarella cheese, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven's broiler. Brush the slices of bread lightly with olive oil, and place on a baking sheet. Toast under the broiler for about 3 minutes. Watch carefully. Rub each crostini with a garlic clove for flavor."},{"recipe_directions":"Place the tomatoes into a medium bowl, and drizzle with olive oil. Season with salt and pepper."},{"recipe_directions":"Place the crostini on a serving tray. Top each one with a slice of mozzarella cheese, cover with a spoonful of tomatoes, and garnish with fresh basil."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Canapes and Crostini Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"385\nCalories\n\n\n18g \nFat\n\n\n36g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699640258-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PU1GJzQW4qnYfEAHn8dp9jYnSXs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/399469-f0daacd5a8f146a7a1577fcad94a2f41.jpg"
@@ -1182,59 +1463,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/132646/bagna-calda-italian-garlic-anchovy-sardine-appetizer/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bagna Calda (Italian Garlic-Anchovy-Sardine Appetizer)</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n32"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups vegetable oil\n\n\n¾ cup minced garlic\n\n\n4 (2 ounce) cans anchovy fillets packed in olive oil, drained\n\n\n3 (4 ounce) cans sardines packed in olive oil, drained\n\n\n1 cup butter"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups vegetable oil\n\n\n¾ cup minced garlic\n\n\n4 (2 ounce) cans anchovy fillets packed in olive oil, drained\n\n\n3 (4 ounce) cans sardines packed in olive oil, drained\n\n\n1 cup butter'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place canola oil in a skillet and heat over medium heat. Stir in garlic; cook until golden brown, about 5 minutes. Add butter, anchovies, and sardines; cook and stir until well blended, 10 to 15 minutes. Serve warm."},{"recipe_directions":"Editor's Note"},{"recipe_directions":"The nutritional analysis of this recipe reflects an estimated 10% of the oil for frying as well as the full amount for the anchovies and sardines. Therefore, the values represented may not be accurate."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"99\nCalories\n\n\n9g \nFat\n\n\n1g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699640265-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OeZWgv1kUZDcziuDbFJ0QXlC324=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3212197-olive-oil-dip-for-italian-bread-damizkim-4x3-1-d988603721a34f82bd3f7341e699dd29.jpg"
@@ -1248,59 +1525,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57776/olive-oil-dip-for-italian-bread/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Olive Oil Dip for Italian Bread</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n5 cloves garlic\n\n\n2 tablespoons balsamic vinegar\n\n\n2 tablespoons Parmesan cheese\n\n\n1 tablespoon crushed dried oregano\n\n\n  fresh ground black pepper, to taste"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n5 cloves garlic\n\n\n2 tablespoons balsamic vinegar\n\n\n2 tablespoons Parmesan cheese\n\n\n1 tablespoon crushed dried oregano\n\n\n  fresh ground black pepper, to taste'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour the olive oil onto a salad plate. Use a garlic press to press the garlic cloves onto five different spots on the plate. Drizzle the balsamic vinegar over the oil and garlic. Sprinkle with Parmesan cheese and oregano. Season with black pepper."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"145\nCalories\n\n\n14g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699640272-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CGfLPPEONefYSJd8jsz5syrKK4E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5001049-buttermilk-battered-calamari-Alan-Oliver-4x3-1-407ea13f02854f8da4af7e5e279de843.jpg"
@@ -1314,59 +1587,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/69818/buttermilk-battered-calamari/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Buttermilk-Battered Calamari</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups vegetable oil for frying\n\n\n1 cup buttermilk\n\n\n1 cup all-purpose flour\n\n\n½ tablespoon salt\n\n\n½ tablespoon ground black pepper\n\n\n1 teaspoon dried oregano\n\n\n1 pound squid, cleaned and cut into 1/2 inch rings"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups vegetable oil for frying\n\n\n1 cup buttermilk\n\n\n1 cup all-purpose flour\n\n\n½ tablespoon salt\n\n\n½ tablespoon ground black pepper\n\n\n1 teaspoon dried oregano\n\n\n1 pound squid, cleaned and cut into 1/2 inch rings'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a saucepan or deep-fryer to 375 degrees F (190 degrees C)."},{"recipe_directions":"Pour buttermilk into a medium bowl. In a separate bowl, stir together the flour, salt, pepper and oregano. Dip squid rings into the buttermilk, then into the seasoned flour."},{"recipe_directions":"Place the coated pieces in the hot oil, and fry in small batches, turning if necessary, for even cooking. When evenly browned, remove to paper towels to drain, and continue with the rest of the squid. Serve hot."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n9g \nFat\n\n\n18g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699640278-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oo0_PaWMZApk8GVPKOqtPx1_xb8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/390011-3be5c9aa3b4c45c39d4539b921420bc4.jpg"
@@ -1379,59 +1648,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88207/tofu-and-rice-stuffed-peppers/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Tofu and Rice Stuffed Peppers</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup uncooked brown rice\n\n\n2 cups water\n\n\n2 tablespoons olive oil\n\n\n1 clove garlic, minced\n\n\n1 (12 ounce) package extra-firm tofu, drained and diced\n\n\n1 ¾ cups marinara sauce, divided\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n2  red bell peppers, halved and seeded\n\n\n2  orange bell peppers, halved and seeded\n\n\n2 cups shredded mozzarella cheese\n\n\n8 slices tomato"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup uncooked brown rice\n\n\n2 cups water\n\n\n2 tablespoons olive oil\n\n\n1 clove garlic, minced\n\n\n1 (12 ounce) package extra-firm tofu, drained and diced\n\n\n1 ¾ cups marinara sauce, divided\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n2  red bell peppers, halved and seeded\n\n\n2  orange bell peppers, halved and seeded\n\n\n2 cups shredded mozzarella cheese\n\n\n8 slices tomato'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place rice and water in a pot and bring to a boil. Cover, reduce heat to low, and simmer 45 minutes, or until tender."},{"recipe_directions":"Heat the olive oil in a skillet over medium heat, and stir in garlic and tofu. Cook about 5 minutes. Mix in 1/4 cup marinara sauce, season with salt and pepper, and continue to cook and stir until tofu is evenly brown."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Using a wooden spoon or spatula, press an equal amount of rice into each pepper half. Layer rice with remaining marinara sauce, and 1/2 the cheese. Press equal amounts of tofu into the pepper halves. Place 1 tomato slice on each pepper, and top peppers with remaining mozzarella. Arrange stuffed peppers in a baking dish."},{"recipe_directions":"Bake 25 minutes in the preheated oven, until cheese is melted. Serve 1/2 of each color pepper to each person."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Tapas"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"554\nCalories\n\n\n25g \nFat\n\n\n56g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699640283-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kXAR5pO1pQuu7I6HFvuF1vULtFw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1560x0:1562x2):format(webp)/8270351-673950b0a17d4e19a8040a7b3e44a3fd.jpg"
@@ -1444,59 +1709,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/142777/ricotta-stuffed-zucchini/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Ricotta-Stuffed Zucchini</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 stuffed zucchini halves"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2  zucchini, halved lengthwise\n\n\n1 teaspoon salt, divided\n\n\n1 teaspoon ground black pepper, divided\n\n\n½ cup part-skim ricotta cheese\n\n\n¼ cup shredded part-skim mozzarella cheese\n\n\n2 tablespoons grated Parmesan cheese\n\n\n2 teaspoons dried basil\n\n\n1 teaspoon fresh lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2  zucchini, halved lengthwise\n\n\n1 teaspoon salt, divided\n\n\n1 teaspoon ground black pepper, divided\n\n\n½ cup part-skim ricotta cheese\n\n\n¼ cup shredded part-skim mozzarella cheese\n\n\n2 tablespoons grated Parmesan cheese\n\n\n2 teaspoons dried basil\n\n\n1 teaspoon fresh lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Grease a baking sheet."},{"recipe_directions":"Use a spoon to scoop out seeds from zucchini halves, then season the cut sides with 1/2 teaspoon salt and 1/2 teaspoon pepper."},{"recipe_directions":"Mix ricotta, mozzarella, Parmesan, basil, lemon juice, and remaining 1/2 teaspoon each salt and pepper together in a bowl. Divide cheese mixture among four zucchini halves. Place stuffed zucchini onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until zucchini is tender and filling is beginning to brown, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"},{"recipe_tags":"Zucchini Appetizer Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"41\nCalories\n\n\n2g \nFat\n\n\n3g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699640290-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F8j8w7B9DBbWguuDyDBOH2jP94o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(549x709:551x711):format(webp)/5789457-easy-butternut-squash-ravioli-Chef-John-1x1-1-fcc491a9b5dd403b85112b9cc81dca08.jpg"
@@ -1510,59 +1771,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219174/easy-butternut-squash-ravioli/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Easy Butternut Squash Ravioli</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup mashed, cooked butternut squash\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n½ cup mascarpone cheese\n\n\n1  egg yolk\n\n\n⅓ cup grated Parmesan cheese\n\n\n1 (16 ounce) package round wonton wrappers\n\n\n2 tablespoons butter\n\n\n1 clove garlic, unpeeled\n\n\n  chopped fresh sage to taste\n\n\n1 tablespoon grated Parmesan cheese, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup mashed, cooked butternut squash\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n1 pinch cayenne pepper\n\n\n½ cup mascarpone cheese\n\n\n1  egg yolk\n\n\n⅓ cup grated Parmesan cheese\n\n\n1 (16 ounce) package round wonton wrappers\n\n\n2 tablespoons butter\n\n\n1 clove garlic, unpeeled\n\n\n  chopped fresh sage to taste\n\n\n1 tablespoon grated Parmesan cheese, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cooked squash into a mixing bowl. Add salt, black pepper, and cayenne pepper. Stir in mascarpone cheese, egg yolk, and 1/3 cup Parmesan cheese, mixing until the filling is smoothly combined."},{"recipe_directions":"Place a wonton wrapper onto a working surface. Wet the tip of a finger in water, and run it all along the outer edge of the wonton skin to moisten. Place about 1 teaspoon of filling in the center of the wonton. Fold the wonton in half to make a half-moon shape, and press the edges to seal. Repeat with the remaining wonton wrappers."},{"recipe_directions":"Place a deep skillet over medium-low heat. Stir in butter and unpeeled clove of garlic. Meanwhile, bring a saucepan of lightly salted water to a boil."},{"recipe_directions":"Drop the filled raviolis into the boiling water, a few at a time, and cook until they float to the top, about 2 minutes. Drain the raviolis, and transfer them to the skillet. Turn the heat under the skillet up to medium-high, and cook just until the raviolis are infused with garlic flavor, about 2 or 3 more minutes. Sprinkle with chopped sage, more black pepper, and extra Parmesan cheese to taste."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"480\nCalories\n\n\n26g \nFat\n\n\n50g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699640296-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yKJAsgXflSKdcswzMhFwDO9tG4g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/19597-c165703614dc4c149e6b0975174d2d81.jpg"
@@ -1575,59 +1832,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20545/bruschetta-iii/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Bruschetta with Cheese</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  French baguette\n\n\n1 tablespoon olive oil\n\n\n2  roma (plum) tomatoes, thinly sliced\n\n\n1 tablespoon chopped fresh basil\n\n\n1 tablespoon chopped fresh oregano\n\n\n1 teaspoon garlic powder\n\n\n1 pinch ground white pepper\n\n\n1 (8 ounce) package sliced mozzarella cheese\n\n\n1 (6 ounce) package sliced provolone cheese"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  French baguette\n\n\n1 tablespoon olive oil\n\n\n2  roma (plum) tomatoes, thinly sliced\n\n\n1 tablespoon chopped fresh basil\n\n\n1 tablespoon chopped fresh oregano\n\n\n1 teaspoon garlic powder\n\n\n1 pinch ground white pepper\n\n\n1 (8 ounce) package sliced mozzarella cheese\n\n\n1 (6 ounce) package sliced provolone cheese'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Slice baguette into 1/2-inch thick diagonal slices. Arrange slices in a single layer on a baking sheet. Brush both sides of each slice with olive oil. Place tomato slices and a sprinkling of basil and oregano on bread slices. Sprinkle tomatoes, basil, and oregano with garlic powder and white pepper. Cover tomato slices with mozzarella and provolone. Place more basil, oregano, and tomato slices on top of the cheese."},{"recipe_directions":"Bake in the preheated oven until cheese is bubbly, 7 to 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"439\nCalories\n\n\n17g \nFat\n\n\n46g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699640301-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lDjLKs0dPljG5BIM5jQ45aDNb5o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/242884-b6cdbc4651eb4acb848820c09d4d6f80.jpg"
@@ -1640,59 +1893,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/105038/michaels-foccacia-bread/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Michael's Foccacia Bread</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n12 \n\n\nYield:\n1 - 10x15 inch pan"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon honey\n\n\n2 cups warm water\n\n\n1 tablespoon active dry yeast\n\n\n1 tablespoon kosher salt\n\n\n1 tablespoon extra-virgin olive oil\n\n\n½ cup diced onion\n\n\n5 cups all-purpose flour, or as needed\n\n\n3 tablespoons extra-virgin olive oil\n\n\n2 tablespoons fresh chopped rosemary\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n1 tablespoon kosher salt"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon honey\n\n\n2 cups warm water\n\n\n1 tablespoon active dry yeast\n\n\n1 tablespoon kosher salt\n\n\n1 tablespoon extra-virgin olive oil\n\n\n½ cup diced onion\n\n\n5 cups all-purpose flour, or as needed\n\n\n3 tablespoons extra-virgin olive oil\n\n\n2 tablespoons fresh chopped rosemary\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n1 tablespoon kosher salt'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve honey in the warm water in a large bowl, then sprinkle yeast over the top. Let stand for 5 minutes until the yeast softens and begins to foam. Stir in 1 tablespoon of salt, 1 tablespoon olive oil, onions, and 5 cups of flour until the dough comes together. Knead on a well floured surface until smooth and elastic, about 5 minutes. Lightly oil a large bowl, place the dough in the bowl and turn to coat with oil. Cover with a damp cloth and let rise in a warm place until doubled in volume, about 20 minutes."},{"recipe_directions":"Preheat oven to 415 degrees F (215 degrees C)."},{"recipe_directions":"Place dough onto oiled baking sheet, and flatten to cover the whole sheet evenly. Use the tips of your fingers to make indentations all over the dough spaced about 1 inch apart. Drizzle the focaccia with 3 tablespoons olive oil, then sprinkle rosemary, Parmesan cheese, and remaining 1 tablespoon of kosher salt over the top. Let rise for 10 minutes"},{"recipe_directions":"Bake in preheated oven 20 minutes until golden brown."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Flat Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"249\nCalories\n\n\n6g \nFat\n\n\n42g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699640306-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Klt5GWRw4JLePgpDd8RyXzaEqAE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1107336-ff6c2bdcd4ba4693bc92ca017a1a23b7.jpg"
@@ -1705,59 +1954,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17804/olive-oil-bread/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Olive Oil Bread</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n15 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup warm water (110 degrees F/45 degrees C)\n\n\n2 ¼ teaspoons active dry yeast\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n4 tablespoons olive oil\n\n\n2 ½ cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup warm water (110 degrees F/45 degrees C)\n\n\n2 ¼ teaspoons active dry yeast\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n4 tablespoons olive oil\n\n\n2 ½ cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl mix together the warm water (110 degrees), yeast, sugar, salt, and olive oil. Stir in 2 cups of the flour in order to make a soft ball. Knead in additional flour so that dough is soft and not sticky. Place kneaded dough in a medium size greased bowl. Cover and let rise until doubled in size."},{"recipe_directions":"Punch down dough, and form into ball or loaf shape. Place onto a greased cookie sheet. Cover and let rise for 15 to 20 minutes. Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bake in the preheated oven for 30 to 40 minutes, until golden brown."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"White Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"111\nCalories\n\n\n4g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699640309-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kzY3A3zK86BoXkVMEOXSxXnYzGE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1068930-9cf15cc930d44f6b96c2ac30236c741d.jpg"
@@ -1770,59 +2015,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/6811/panettone-i/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Panettone I</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs 40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (.25 ounce) package active dry yeast\n\n\n1 cup warm water (110 degrees F/45 degrees C)\n\n\n¼ cup white sugar\n\n\n2  eggs\n\n\n½ cup nonfat plain yogurt\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon grated lemon zest\n\n\n¼ teaspoon salt\n\n\n4 cups unbleached all-purpose flour\n\n\n¼ cup dried currants\n\n\n¼ cup raisins\n\n\n1 tablespoon confectioners' sugar\n\n\n1 tablespoon butter, melted (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (.25 ounce) package active dry yeast\n\n\n1 cup warm water (110 degrees F/45 degrees C)\n\n\n¼ cup white sugar\n\n\n2  eggs\n\n\n½ cup nonfat plain yogurt\n\n\n1 teaspoon vanilla extract\n\n\n1 tablespoon grated lemon zest\n\n\n¼ teaspoon salt\n\n\n4 cups unbleached all-purpose flour\n\n\n¼ cup dried currants\n\n\n¼ cup raisins\n\n\n1 tablespoon confectioners' sugar\n\n\n1 tablespoon butter, melted (Optional)"}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, combine yeast, water and sugar. Cover and let stand 10 minutes, or until foamy. Add eggs, yogurt, vanilla, lemon zest, and salt. Mix well. Stir in flour 1/2 cup at a time until dough forms into a manageable ball. Turn out onto a lightly floured surface and knead for 5 to 10 minutes, adding flour as necessary, until dough is soft and pliable, but not sticky. (May need up to 5 cups flour.) Place dough in a large, lightly pan-sprayed bowl, cover, and let rise in a warm place until doubled, about 1 hour."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C) and spray a round 8-inch cake pan with non-stick spray. In a small bowl, toss dried fruit with confectioners' sugar. Punch down dough in bowl, transfer to floured surface, and knead in the fruit."},{"recipe_directions":"Form dough into a ball, place in prepared cake pan, cover loosely with dish towel, and let rise 30 minutes. (Loaf will rise above the pan sides.) Brush with melted butter, if desired. Bake for 45 minutes, or until loaf is golden brown and a toothpick inserted in the center comes out clean. Makes 10 wedges."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n2g \nFat\n\n\n41g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699640313-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/07p7i7nUD1U12C2bwycAiYswytk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/27192_Best-Bruschetta-Ever_Christina_5268558_original-1x1-1-549292c406b241d69491c684fd23934c.jpg"
@@ -1836,59 +2077,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27192/best-bruschetta-ever/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Best Bruschetta Ever</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 20 mins\n\n\nServings:\n8 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  tomatoes, cubed\n\n\n1 teaspoon dried basil\n\n\n4 tablespoons grated Parmesan cheese\n\n\n2 tablespoons olive oil\n\n\n1 clove garlic, crushed\n\n\n  seasoning salt to taste\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  tomatoes, cubed\n\n\n1 teaspoon dried basil\n\n\n4 tablespoons grated Parmesan cheese\n\n\n2 tablespoons olive oil\n\n\n1 clove garlic, crushed\n\n\n  seasoning salt to taste\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, mix tomatoes, dried basil, Parmesan cheese, olive oil, garlic, seasoning salt and ground black pepper. Cover and chill in the refrigerator 8 hours, or overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"47\nCalories\n\n\n4g \nFat\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699640317-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/w8hOGoupeiPzji9-QZdNKctKw50=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/257843-763e74a620174342bfab269e3e470260.jpg"
@@ -1901,59 +2138,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24634/artichoke-bruschetta/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Artichoke Bruschetta</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n18 mins\n\n\nCook Time:\n2 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (6.5 ounce) jar marinated artichoke hearts, drained and chopped\n\n\n½ cup grated Romano cheese\n\n\n⅓ cup finely chopped red onion\n\n\n5 tablespoons mayonnaise\n\n\n1  French baguette, cut into 1/3 inch thick slices"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (6.5 ounce) jar marinated artichoke hearts, drained and chopped\n\n\n½ cup grated Romano cheese\n\n\n⅓ cup finely chopped red onion\n\n\n5 tablespoons mayonnaise\n\n\n1  French baguette, cut into 1/3 inch thick slices'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the broiler."},{"recipe_directions":"In a medium bowl, mix marinated artichoke hearts, Romano cheese, red onion and mayonnaise. Top French baguette slices with equal amounts of the artichoke heart mixture. Arrange slices in a single layer on a large baking sheet."},{"recipe_directions":"Broil in the preheated oven 2 minutes, or until toppings are bubbly and lightly browned."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"278\nCalories\n\n\n11g \nFat\n\n\n36g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699640322-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4_OA6ojKHow2xghxt9fYislO13M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2463x0:2465x2):format(webp)/9435166-b386f709bc7c4f9d8d289b2da464bcaf.jpg"
@@ -1966,59 +2199,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88454/crostini/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Crostini</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n18 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  French baguette, cut into diagonal 1/2 inch slices\n\n\n¼ cup olive oil\n\n\n¼ cup butter or margarine\n\n\n2 cloves garlic, minced\n\n\n  salt and pepper to taste\n\n\n¼ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  French baguette, cut into diagonal 1/2 inch slices\n\n\n¼ cup olive oil\n\n\n¼ cup butter or margarine\n\n\n2 cloves garlic, minced\n\n\n  salt and pepper to taste\n\n\n¼ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Set the oven to broil at 425 degrees F (220 degrees C)."},{"recipe_directions":"In a small saucepan, combine the olive oil, butter and garlic. Set over medium heat, and cook until butter has melted and the mixture starts to bubble. Season with salt and pepper. Remove from the heat."},{"recipe_directions":"Dip each slice of bread into the garlic mixture, turning to coat each side. Place Parmesan cheese on a plate. Press one side of each piece of bread into the cheese, and place cheese side up on a baking sheet."},{"recipe_directions":"Broil on the middle rack of the preheated oven for about 8 minutes, or until golden brown."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Canapes and Crostini Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"382\nCalories\n\n\n19g \nFat\n\n\n43g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699640326-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jYwkGo6Ow9bEeeliBYi446D-uU0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1022906-3f98eb59da56479baa7a62eea73a5c09.jpg"
@@ -2031,59 +2260,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228048/strawberry-goat-cheese-bruschetta/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Strawberry Goat Cheese Bruschetta</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n12 slices"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup balsamic vinegar\n\n\n12 slices Italian bread\n\n\n1 tablespoon olive oil\n\n\n1 pound strawberries, washed and diced\n\n\n2 teaspoons fresh thyme leaves, plus more for serving\n\n\n1 cup goat cheese, room temperature\n\n\n  salt and freshly ground pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup balsamic vinegar\n\n\n12 slices Italian bread\n\n\n1 tablespoon olive oil\n\n\n1 pound strawberries, washed and diced\n\n\n2 teaspoons fresh thyme leaves, plus more for serving\n\n\n1 cup goat cheese, room temperature\n\n\n  salt and freshly ground pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat vinegar in a small skillet over medium-low heat. Simmer until reduced by about half, 8 to 10 minutes. Remove from heat and allow to cool to room temperature."},{"recipe_directions":"Prepare a grill for high heat. Place bread slices on a foil-lined baking sheet and drizzle with olive oil."},{"recipe_directions":"Combine strawberries and thyme in a small bowl and set aside."},{"recipe_directions":"Grill bread on the preheated grill until browned, about 3 minutes per side."},{"recipe_directions":"Spread goat cheese on toasted bread. Add black pepper, salt, and reduced vinegar to the strawberry mixture. Spoon over the goat cheese topped bruschetta. Garnish with additional thyme."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"303\nCalories\n\n\n15g \nFat\n\n\n30g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699640330-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GCb8WMXpWNR5UIJH_Ko5UMEh9NQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8101985-fd4f8d5c582743b7821d73f1e0388d6a.jpg"
@@ -2096,59 +2321,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231060/rhode-island-style-pizza-strips-aka-bakery-pizza/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Rhode Island-Style Pizza Strips aka Bakery Pizza</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds prepared pizza dough\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n½ cup minced pepperoni (Optional)\n\n\n¼ cup olive oil\n\n\n3 tablespoons grated Romano cheese\n\n\n3 tablespoons white sugar\n\n\n1 teaspoon salt\n\n\n¾ teaspoon minced garlic\n\n\n¾ teaspoon dried oregano\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ cup olive oil, divided"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds prepared pizza dough\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n½ cup minced pepperoni (Optional)\n\n\n¼ cup olive oil\n\n\n3 tablespoons grated Romano cheese\n\n\n3 tablespoons white sugar\n\n\n1 teaspoon salt\n\n\n¾ teaspoon minced garlic\n\n\n¾ teaspoon dried oregano\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ cup olive oil, divided'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Grease 2 baking sheets or line with parchment paper."},{"recipe_directions":"Divide dough in half and roll or press each half out onto each prepared baking sheet into rectangles."},{"recipe_directions":"Mix crushed tomatoes, pepperoni, 1/4 cup olive oil, Romano cheese, sugar, salt, garlic, oregano, and black pepper in a bowl, stirring to dissolve sugar and salt. Spread half the sauce evenly over each crust, spreading it all the way to the edges. Drizzle top of each pizza with 2 tablespoons olive oil."},{"recipe_directions":"Bake in the preheated oven until the sauce looks dry at the edges, still moist in the middle, and crusts are crisp on the bottom, 15 to 20 minutes."},{"recipe_directions":"Let cool to room temperature on racks and cut each pizza into 8 strips about 9 inches long and 3 inches wide."},{"recipe_directions":"If using a half-sheet pan, all of the dough goes in one pan. You can use any Romano or Parmesan you like (including the cheap stuff from the spaghetti sauce aisle of the supermarket) as long as it's finely grated. For the crushed tomatoes, I swear by Scalfani(R) brand. There's no citric acid, so the sauce stays a bit sweeter. You can easily divide this recipe in half for 1 pizza. I like homemade pizza dough, but use what's convenient for you. The supermarket dough works just fine. Just don't use a pre-made pizza shell; it's got to be fresh dough."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Cheese"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"275\nCalories\n\n\n12g \nFat\n\n\n33g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699640334-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P-_SgyaDetJfSb9J9s3-enYB5Uk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1848x0:1850x2):format(webp)/4542188-3315e87b9ea84c588b5656544648d59f.jpg"
@@ -2161,59 +2382,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20669/double-tomato-bruschetta/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Double Tomato Bruschetta</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n7 mins\n\n\nAdditional Time:\n13 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  roma (plum) tomatoes, chopped\n\n\n½ cup sun-dried tomatoes, packed in oil\n\n\n3 cloves minced garlic\n\n\n¼ cup olive oil\n\n\n2 tablespoons balsamic vinegar\n\n\n¼ cup fresh basil, stems removed\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1  French baguette\n\n\n2 cups shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  roma (plum) tomatoes, chopped\n\n\n½ cup sun-dried tomatoes, packed in oil\n\n\n3 cloves minced garlic\n\n\n¼ cup olive oil\n\n\n2 tablespoons balsamic vinegar\n\n\n¼ cup fresh basil, stems removed\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1  French baguette\n\n\n2 cups shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven on broiler setting."},{"recipe_directions":"In a large bowl, combine the roma tomatoes, sun-dried tomatoes, garlic, olive oil, vinegar, basil, salt, and pepper. Allow the mixture to sit for 10 minutes."},{"recipe_directions":"Cut the baguette into 3/4-inch slices. On a baking sheet, arrange the baguette slices in a single layer. Broil for 1 to 2 minutes, until slightly brown."},{"recipe_directions":"Divide the tomato mixture evenly over the baguette slices. Top the slices with mozzarella cheese."},{"recipe_directions":"Broil for 5 minutes, or until the cheese is melted."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"215\nCalories\n\n\n9g \nFat\n\n\n25g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699640338-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/J0rrK3qlOTVzFKetDLCh-qPpQiw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7415902-169a4c4c4e644e22a466aef725825d40.jpg"
@@ -2226,59 +2443,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16795/marinara-dipping-sauce/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Marinara Dipping Sauce</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n2 cloves garlic, chopped\n\n\n5  tomatoes, peeled and finely chopped\n\n\n1 teaspoon white sugar\n\n\n¼ cup water\n\n\n2 teaspoons chopped fresh basil\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n2 cloves garlic, chopped\n\n\n5  tomatoes, peeled and finely chopped\n\n\n1 teaspoon white sugar\n\n\n¼ cup water\n\n\n2 teaspoons chopped fresh basil\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large skillet, heat oil and saute garlic until light brown and softened. Be careful not to burn the garlic. Stir in tomatoes, sugar, water, basil, and salt and pepper."},{"recipe_directions":"Bring contents of the pan to a boil. Cover and simmer on low heat for approximately 45 minutes, stirring occasionally. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"64\nCalories\n\n\n4g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699640342-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BqR4b25qMPET7BUj9oEektnwhNg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1358104-83deb128acce4359a6468cf342ca2ab1.jpg"
@@ -2291,59 +2504,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14838/easy-bruschetta/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Easy Bruschetta</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  French baguette, cut into 1/2 inch thick circles\n\n\n8  plum tomatoes, diced\n\n\n1 cup chopped fresh basil\n\n\n½  red onion, minced\n\n\n  freshly ground black pepper\n\n\n3 cloves garlic"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  French baguette, cut into 1/2 inch thick circles\n\n\n8  plum tomatoes, diced\n\n\n1 cup chopped fresh basil\n\n\n½  red onion, minced\n\n\n  freshly ground black pepper\n\n\n3 cloves garlic'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Combine tomato, basil, and red onion in a small mixing bowl; stir well. Season with freshly ground black pepper. Set aside."},{"recipe_directions":"Arrange bread on a baking sheet. Place in oven, and bake until well toasted, approximately 5 minutes."},{"recipe_directions":"Remove bread from oven, and transfer to a large serving platter. Let bread cool 3 to 5 minutes. Rub garlic into the top of each slice of toast; the toast should glisten with the garlic. Spoon the tomato mixture generously onto each slice, and serve."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"90\nCalories\n\n\n1g \nFat\n\n\n18g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699640346-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WZgWtdnAkvCzuVw6YBkifSYWQcI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2373114-bc95cf6edd6e4224861b0bd3fa755e85.jpg"
@@ -2356,59 +2565,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244217/italian-style-bruschetta/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Italian-Style Bruschetta</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds plum tomatoes, seeded and cut into small dice\n\n\n¼ cup chopped fresh basil\n\n\n6 tablespoons extra-virgin olive oil, divided\n\n\n2 tablespoons finely chopped red onion\n\n\n2 large cloves garlic, minced\n\n\n2 teaspoons red wine vinegar\n\n\n  freshly ground black pepper to taste\n\n\n1  French baguette, cut into 1/2-inch thick slices\n\n\n1 tablespoon high-quality balsamic vinegar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds plum tomatoes, seeded and cut into small dice\n\n\n¼ cup chopped fresh basil\n\n\n6 tablespoons extra-virgin olive oil, divided\n\n\n2 tablespoons finely chopped red onion\n\n\n2 large cloves garlic, minced\n\n\n2 teaspoons red wine vinegar\n\n\n  freshly ground black pepper to taste\n\n\n1  French baguette, cut into 1/2-inch thick slices\n\n\n1 tablespoon high-quality balsamic vinegar, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir tomatoes, basil, 3 tablespoons olive oil, red onion, garlic, red wine vinegar, and pepper together in a bowl; let tomato mixture stand at room temperature for 15 minutes, then place in the refrigerator to marinate for 45 minutes."},{"recipe_directions":"Set oven rack about 6 inches from the heat source and preheat the oven's broiler."},{"recipe_directions":"Brush one side of each slice of bread with remaining olive oil. Place bread slices, oiled-side-up, onto a baking sheet."},{"recipe_directions":"Broil until golden brown, about 2 minutes; remove from oven. Spoon tomato mixture evenly over the top of toasted bread slices; drizzle balsamic vinegar evenly over tomato mixture. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n11g \nFat\n\n\n29g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699640350-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ObMNAkwE0Klih-vJCE_78-qJyBA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1444380-5e817dcf4adb4bc2ac21ba004ecbdb69.jpg"
@@ -2421,59 +2626,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/42027/basil-pesto-bread-rounds/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Basil Pesto Bread Rounds</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n6 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n18 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 pound) loaf French baguette\n\n\n⅔ cup mayonnaise\n\n\n⅓ cup basil pesto\n\n\n2 cloves garlic, minced\n\n\n½ cup freshly grated Parmesan cheese\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 pound) loaf French baguette\n\n\n⅔ cup mayonnaise\n\n\n⅓ cup basil pesto\n\n\n2 cloves garlic, minced\n\n\n½ cup freshly grated Parmesan cheese\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven on broiler setting. Arrange bread slices in a single layer on a cookie sheet. Place under broiler for 5 to 8 minutes, or until lightly toasted on one side. Watch carefully to ensure they don't burn. Remove from oven, and flip bread slices so that the toasted side is on the bottom."},{"recipe_directions":"Set the oven temperature for 350 degrees F (175 degrees C). In a small bowl, mix together mayonnaise, pesto, garlic, Parmesan and salt. Spread evenly over untoasted sides of bread slices."},{"recipe_directions":"Bake in the preheated oven for 6 to 8 minutes. Set the oven to broil, and place the rounds under the broiler just until they begin to bubble and turn golden. Let cool slightly before serving."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Canapes and Crostini Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"375\nCalories\n\n\n22g \nFat\n\n\n34g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699640354-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1udkM4DVLxOPYYlQ0eVdcY0hQAs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4885528-8f88d27b2dad4206b10fc7097839c839.jpg"
@@ -2486,59 +2687,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/26705/bagna-cauda/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Bagna Cauda</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 50 mins\n\n\nServings:\n12 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter\n\n\n10 cloves garlic, minced\n\n\n2 (2 ounce) cans anchovy fillets, drained\n\n\n1 pint heavy cream"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter\n\n\n10 cloves garlic, minced\n\n\n2 (2 ounce) cans anchovy fillets, drained\n\n\n1 pint heavy cream'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a medium saucepan over medium heat. Stir in garlic and cook until tender. Reduce heat to low. Mix in anchovy filets and heavy cream. Cook and stir until thickened. Remove from heat, cover and chill in the refrigerator approximately 2 hours."},{"recipe_directions":"Return the mixture to medium heat, stirring occasionally, until bubbly. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"224\nCalories\n\n\n23g \nFat\n\n\n2g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699640358-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6KK0o8IHlCnRVrd63ks7TGyfHYI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1025463-e6e8a3dd36f64391bb700ba7b91c20ae.jpg"
@@ -2551,59 +2748,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20509/best-ever-party-appetizer/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Best Ever Party Appetizer</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 ounces goat cheese\n\n\n3 tablespoons olive oil\n\n\n1 cup oil-packed sun-dried tomatoes, drained and diced\n\n\n1 cup black olives, chopped\n\n\n4 tablespoons chopped fresh basil\n\n\n2 tablespoons chopped fresh rosemary\n\n\n3 cloves garlic, halved"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 ounces goat cheese\n\n\n3 tablespoons olive oil\n\n\n1 cup oil-packed sun-dried tomatoes, drained and diced\n\n\n1 cup black olives, chopped\n\n\n4 tablespoons chopped fresh basil\n\n\n2 tablespoons chopped fresh rosemary\n\n\n3 cloves garlic, halved'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice goat cheese into one inch pieces and place in a single layer on a large platter. Sprinkle olive oil, sun-dried tomatoes, black olives, basil and rosemary over the cheese."},{"recipe_directions":"Using toothpicks, insert the garlic cloves into the cheese throughout the mixture."},{"recipe_directions":"Allow the mixture to marinate 6 hours, or overnight, in the refrigerator. Remove the toothpicks, and serve with sliced French bread."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Cheese"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"202\nCalories\n\n\n17g \nFat\n\n\n5g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699640361-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W0moT6Mjm7xpm7GocyrZGYMq08E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/582109-38c34a5b476d45cabd089abee65e771f.jpg"
@@ -2616,59 +2809,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214601/a-plus-italian-olive-oil-balsamic-bread-dip/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>A-Plus Italian Olive Oil Balsamic Bread Dip</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large cloves garlic, minced\n\n\n2 tablespoons balsamic vinegar\n\n\n5 tablespoons extra-virgin olive oil\n\n\n½ teaspoon crushed red pepper flakes\n\n\n1 teaspoon fresh rosemary, chopped\n\n\n1 pinch salt and black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large cloves garlic, minced\n\n\n2 tablespoons balsamic vinegar\n\n\n5 tablespoons extra-virgin olive oil\n\n\n½ teaspoon crushed red pepper flakes\n\n\n1 teaspoon fresh rosemary, chopped\n\n\n1 pinch salt and black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the garlic, balsamic vinegar, olive oil, red pepper flakes, rosemary, and salt and pepper into a shallow bowl in that order. To serve, spoon small amount onto bread."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"164\nCalories\n\n\n17g \nFat\n\n\n3g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699640365-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IQESSMhusn_OskR7bo1q5LZhYV0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4521537-bomba-calabrese-spicy-calabrian-pepper-spread-Chef-John-1x1-1-1c8766324b174ac69b1aa55651e3eff8.jpg"
@@ -2682,59 +2871,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258369/bomba-calabrese-spicy-calabrian-pepper-spread/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Bomba Calabrese (Spicy Calabrian Pepper Spread)</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n32 \n\n\nYield:\n32 (2-tablespoon) servings"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large button mushrooms, quartered\n\n\n½  yellow onion, chopped\n\n\n1 small eggplant - trimmed, peeled, cut into chunks\n\n\n¾ cup olive oil, or more as needed, divided\n\n\n1 pinch kosher salt, plus more as needed\n\n\n2 pounds hot cherry peppers\n\n\n1 pound red bell peppers\n\n\n3  habanero peppers\n\n\n1 teaspoon kosher salt, plus more to taste\n\n\n½ teaspoon crushed fennel seeds\n\n\n1 teaspoon dried oregano\n\n\n¼ cup white wine vinegar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large button mushrooms, quartered\n\n\n½  yellow onion, chopped\n\n\n1 small eggplant - trimmed, peeled, cut into chunks\n\n\n¾ cup olive oil, or more as needed, divided\n\n\n1 pinch kosher salt, plus more as needed\n\n\n2 pounds hot cherry peppers\n\n\n1 pound red bell peppers\n\n\n3  habanero peppers\n\n\n1 teaspoon kosher salt, plus more to taste\n\n\n½ teaspoon crushed fennel seeds\n\n\n1 teaspoon dried oregano\n\n\n¼ cup white wine vinegar, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place mushrooms, onion, and eggplant into bowl of a food processor. Pulse on and off until very finely chopped but not liquefied, 8 to 10 pulses."},{"recipe_directions":"Drizzle 2 tablespoons olive oil into a skillet. Transfer mushroom mixture to skillet over medium-high heat. Add a large pinch of salt. Cook until mixture is soft, stirring, about 10 minutes."},{"recipe_directions":"Cut off tops of cherry peppers; discard stems but save the ring of pepper around it. (Do wear protective gloves for this.) Cut the peppers in half and remove the seed pods. Shake out the rest of the seeds. Prep the bell peppers and habanero peppers the same way. Place all peppers in bowl of food processor. Pulse on and off until peppers are very finely chopped, but not liquefied. Transfer peppers to eggplant-onion-mushroom mixture in skillet. Add remaining olive oil. Cook and stir over medium-high heat, reducing heat as needed if mixture looks like it may brown. Add fennel seeds, oregano, and a pinch of salt. Cook until peppers are sweet and tender, 20 to 30 minutes, stirring occasionally. Remove from heat."},{"recipe_directions":"Stir in white wine vinegar and (optionally) another tablespoon of olive oil. Transfer mixture to a mixing bowl and cool to room temperature. Taste for seasonings, adding more salt, a splash of vinegar, and/or olive oil, if needed. Transfer to jars. Store in refrigerator."},{"recipe_directions":"Two pounds cherry peppers should yield about 1 pound after trimming. One pound bell peppers should yield about 12 ounces after trimming."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"58\nCalories\n\n\n5g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699640369-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ScGSBItnKkn95eZW6SynQsjQZgk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3605381-b506207e5f494e44a7cf5c1bbe488748.jpg"
@@ -2747,59 +2932,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/48156/alis-amazing-bruschetta/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Ali's Amazing Bruschetta</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large tomatoes, coarsely chopped\n\n\n½  sweet onion, chopped\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon chopped fresh oregano\n\n\n1 teaspoon chopped fresh basil\n\n\n2 teaspoons chopped fresh parsley\n\n\n½ (1 pound) loaf Italian bread, cut into 1 inch slices\n\n\n¼ cup freshly grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large tomatoes, coarsely chopped\n\n\n½  sweet onion, chopped\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon chopped fresh oregano\n\n\n1 teaspoon chopped fresh basil\n\n\n2 teaspoons chopped fresh parsley\n\n\n½ (1 pound) loaf Italian bread, cut into 1 inch slices\n\n\n¼ cup freshly grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"In a medium bowl, combine tomatoes, onion, olive oil, oregano, basil and parsley. Place bread on a baking sheet, and top with tomato mixture. Sprinkle with Parmesan."},{"recipe_directions":"Bake in preheated oven for 8 to 10 minutes, or until bottom of bread is browned. Allow to cool 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n7g \nFat\n\n\n22g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699640373-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ghMEEYBj3n65i9VciGruAIUHHF4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3701256-e557dc6c9b2346b198b9b6a6c6fa9d9b.jpg"
@@ -2812,59 +2993,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234616/fried-stuffed-squash-blossoms/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Fried Stuffed Squash Blossoms</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n12 filled squash blossoms"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12  fresh zucchini blossoms\n\n\n¾ cup soft goat cheese at room temperature\n\n\n¼ cup shredded Gruyère cheese\n\n\n1 large egg yolk\n\n\n1 pinch freshly ground black pepper, or to taste\n\n\n1 pinch cayenne pepper"},{"recipe_ingredients":"1 cup self-rising flour\n\n\n½ cup cornstarch\n\n\n¼ cup ice-cold water, or as needed\n\n\n2 cups vegetable oil for frying, or as needed\n\n\n1 teaspoon all-purpose flour, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12  fresh zucchini blossoms\n\n\n¾ cup soft goat cheese at room temperature\n\n\n¼ cup shredded Gruyère cheese\n\n\n1 large egg yolk\n\n\n1 pinch freshly ground black pepper, or to taste\n\n\n1 pinch cayenne pepper'}, {'recipe_ingredients': '1 cup self-rising flour\n\n\n½ cup cornstarch\n\n\n¼ cup ice-cold water, or as needed\n\n\n2 cups vegetable oil for frying, or as needed\n\n\n1 teaspoon all-purpose flour, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gently rinse the squash blossoms to remove any dirt or debris; remove the stamens as they are bitter and not edible."},{"recipe_directions":"Make the filling: Mix goat cheese, Gruyère, egg yolk, pepper, and cayenne together in a bowl until smooth. Spoon into a 1-quart resealable plastic bag, squeeze out the air, and seal the bag. Cut a small corner off the bag."},{"recipe_directions":"Gently insert the cut corner of the bag into the open end of a blossom and pipe in about 1 tablespoon filling, making sure it fills all the way to the bottom. Lift petals up and drape over filling to cover completely. Fold any excess petals over the top of the filled blossom to keep them out of the way. Repeat to fill remaining blossoms. Refrigerate until cheese is set and firm, at least 30 minutes."},{"recipe_directions":"Meanwhile, make the batter: Combine flour and cornstarch in a mixing bowl. Whisk in ice-cold water, a little at a time, until batter is smooth and has the thickness of pancake batter."},{"recipe_directions":"Heat 1 inch oil in a cast iron skillet to 350 degrees F (175 degrees C). A drop of batter carefully dripped into the oil should sizzle immediately."},{"recipe_directions":"Remove squash blossoms from the refrigerator and dust lightly with all-purpose flour on all sides. Shake off excess flour and dip blossoms in batter. Let excess batter drip off."},{"recipe_directions":"Gently lay about six coated squash blossoms on their sides in hot oil and cook until pale golden brown, about 1 minute on the first side and 30 seconds to 1 minute on the remaining sides. Transfer to a paper towel-lined plate and repeat to fry remaining blossoms. Let cool slightly before serving."},{"recipe_directions":"Use shredded Gruyère, Cheddar, Manchego, or any other firm cheese in the filling."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of breading ingredients. The actual amount of breading consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"448\nCalories\n\n\n42g \nFat\n\n\n13g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699640376-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e0oS0bF5DFI2U3O9x9Hx4k_Q9C0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/7999235-bb8b40f932014dc19b48c6b5986c5992.jpg"
@@ -2877,59 +3054,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279509/authentic-taralli/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Authentic Taralli</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 35 mins\n\n\nServings:\n60 \n\n\nYield:\n60 taralli"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups all-purpose flour\n\n\n½ teaspoon fine sea salt, divided\n\n\n¾ cup olive oil\n\n\n¾ cup dry white wine"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups all-purpose flour\n\n\n½ teaspoon fine sea salt, divided\n\n\n¾ cup olive oil\n\n\n¾ cup dry white wine'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine flour, 1/4 teaspoon salt, oil, and wine in a stand mixer. Mix ingredients using the paddle attachment until a ball forms. Switch to the dough hook and knead dough for 10 minutes."},{"recipe_directions":"Line a baking sheet with parchment paper. Bring a large pot of water to boil over high heat and add the remaining salt. Spread a large, clean cloth out on a counter or table."},{"recipe_directions":"Pinch off a walnut-sized piece of dough once kneading has finished. Roll dough piece into a snake about 2 1/2 inches long. Form a tear drop shape, lightly pressing the two ends together to seal them into a ring. Repeat with remaining dough."},{"recipe_directions":"Turn down the boiling water to a low boil. Drop taralli into the water a few at a time. Do not stir; they will sink at first, then begin to float. Remove floating taralli with a slotted spoon. Place them on the clean cloth and continue until all the taralli have boiled and are drained on the cloth. Place them on the prepared baking sheet."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake in the preheated oven until taralli are golden and firm on the outside, but still soft on the inside, about 40 minutes. Cool completely and rest for at least 1 hour before serving. Wrap with a clean cloth or place in a paper bag; store at room temperature for up to 1 week."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Cracker Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"57\nCalories\n\n\n3g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699640382-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gdJRSXzwl5crWrC5Zij9RLB4JbY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/6810799-95916349d2174a95b8a0601bc5504b3c.jpg"
@@ -2942,59 +3115,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/104806/tomato-and-mozzarella-bites/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Tomato and Mozzarella Bites</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n10 \n\n\nYield:\n20 skewers"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"20  toothpicks\n\n\n20  grape or cherry tomatoes, halved\n\n\n20  fresh basil leaves\n\n\n20  small balls fresh mozzarella cheese (often labeled bocconcini)\n\n\n  salt and pepper to taste\n\n\n½ cup balsamic vinegar\n\n\n¼ cup extra virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '20  toothpicks\n\n\n20  grape or cherry tomatoes, halved\n\n\n20  fresh basil leaves\n\n\n20  small balls fresh mozzarella cheese (often labeled bocconcini)\n\n\n  salt and pepper to taste\n\n\n½ cup balsamic vinegar\n\n\n¼ cup extra virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Thread a tomato half, a basil leaf, a mozzarella ball, and another tomato half onto a toothpick. Repeat with remaining ingredients."},{"recipe_directions":"Arrange toothpicks on a serving platter and season with salt and pepper."},{"recipe_directions":"Mix vinegar and oil together in a small bowl to serve as a dipping sauce."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Caprese Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"58\nCalories\n\n\n6g \nFat\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699640386-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YpItlIVTioZJm9NhDbgs_dNQ8aw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/5654941-36b78c0e7f804fb5b83d08d11e659db6.jpg"
@@ -3007,59 +3176,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/72102/salt-and-garlic-bagel-chips/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Salt and Garlic Bagel Chips</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup olive oil, plus more for greasing the sheet\n\n\n3 day-old bagels\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon Italian seasoning\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup olive oil, plus more for greasing the sheet\n\n\n3 day-old bagels\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon Italian seasoning\n\n\n¼ cup freshly grated Parmesan cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Lightly grease a baking sheet with olive oil."},{"recipe_directions":"Use a serrated knife to slice bagels into 1/8-inch-thick rounds. Arrange in a single layer on the prepared baking sheet."},{"recipe_directions":"Stir olive oil, Parmesan cheese, garlic, and Italian seasoning together in a small bowl. Brush flavored oil mixture onto bagel rounds or use a spoon to drizzle over top. If you start to run out of the mixture, you can add a little bit more oil without sacrificing any flavor. Season lightly with salt and pepper."},{"recipe_directions":"Bake in the preheated oven until chips are lightly browned, 15 to 20 minutes. Remove from the oven and cool. The chips will become crispier as they cool."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Snack Chip Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"249\nCalories\n\n\n14g \nFat\n\n\n24g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699640390-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/a465ditYN_qn1pFJwVC9aUNdgl4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/336276-7e08b74645804b418f6e49eb3b20a7e5.jpg"
@@ -3072,59 +3237,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25529/parmesan-garlic-bread/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Parmesan Garlic Bread</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter, melted\n\n\n1 tablespoon grated Parmesan cheese, or more to taste\n\n\n1 teaspoon garlic salt\n\n\n¼ teaspoon dried rosemary\n\n\n⅛ teaspoon dried basil\n\n\n⅛ teaspoon dried thyme\n\n\n⅛ teaspoon garlic powder\n\n\n1 (1 pound) loaf French bread, halved lengthwise"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter, melted\n\n\n1 tablespoon grated Parmesan cheese, or more to taste\n\n\n1 teaspoon garlic salt\n\n\n¼ teaspoon dried rosemary\n\n\n⅛ teaspoon dried basil\n\n\n⅛ teaspoon dried thyme\n\n\n⅛ teaspoon garlic powder\n\n\n1 (1 pound) loaf French bread, halved lengthwise'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C)."},{"recipe_directions":"Mix butter, Parmesan, garlic salt, rosemary, basil, thyme, and garlic powder together in a small bowl. Spread 1/2 of the mixture onto each piece of French bread. Sprinkle with additional Parmesan cheese if desired. Transfer bread, seasoned-side up, to a medium baking sheet."},{"recipe_directions":"Bake in the preheated oven until the edges are very lightly browned, 10 to 12 minutes."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Garlic Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"267\nCalories\n\n\n13g \nFat\n\n\n32g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699640402-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AanXJ7DI9xOQOLeROg-ZfasGwmY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9069845-how-to-make-cheese-sticks-JanetFlo-4x3-1-96354370aba64fa0800156dc0bc87b3e.jpg"
@@ -3138,59 +3299,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234683/how-to-make-cheese-sticks/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>How to Make Cheese Sticks</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n9 \n\n\nYield:\n9 sticks"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 sheet frozen puff pastry, thawed just enough to unfold\n\n\n2 teaspoons olive oil (preferably drained from a tin of anchovies)\n\n\n1 pinch cayenne pepper, or to taste\n\n\nsalt and freshly ground black pepper to taste\n\n\n¼ cup shredded sharp white Cheddar cheese\n\n\n5 tablespoons freshly shredded Parmigiano-Reggiano cheese, divided"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 sheet frozen puff pastry, thawed just enough to unfold\n\n\n2 teaspoons olive oil (preferably drained from a tin of anchovies)\n\n\n1 pinch cayenne pepper, or to taste\n\n\nsalt and freshly ground black pepper to taste\n\n\n¼ cup shredded sharp white Cheddar cheese\n\n\n5 tablespoons freshly shredded Parmigiano-Reggiano cheese, divided'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a baking sheet with parchment paper or a silicone baking mat."},{"recipe_directions":"Unfold puff pastry into a flat sheet and brush olive oil over top. Season with salt, pepper, and cayenne pepper."},{"recipe_directions":"Sprinkle Cheddar and 1/4 cup Parmigiano-Reggiano all over dough to cover. Cover with a piece of plastic wrap. Press on the plastic wrap with your fingers to push cheese and seasonings firmly into the dough, or place a sheet pan over top and press down. Remove and discard plastic wrap."},{"recipe_directions":"Cut dough along the seams into thirds with a pizza cutter or sharp knife, then cut each third lengthwise into thirds again for a total of nine strips."},{"recipe_directions":"Pick up one strip and place it seasoned-side down onto the work surface. Twist it from both ends eight to nine times to make a rolled tube of dough with the seasoning facing out. Place onto the prepared baking sheet and repeat with remaining strips."},{"recipe_directions":"Sprinkle remaining 1 tablespoon Parmigiano-Reggiano cheese over cheese sticks. Roll sticks lightly to even up their shapes; pick up and press any dropped cheese onto the surfaces."},{"recipe_directions":"Bake in the preheated oven for about 10 minutes, then flip and bake until sticks are browned and crisp and hold their shape without drooping when lifted, 10 to 20 more minutes. Cool on a wire rack before serving."},{"recipe_directions":"You can use all kinds of dried herbs and spices, curry powders, smoked paprika, and things like that. This is my basic formula, but you can adapt it to suit your tastes."},{"recipe_directions":"The wider the strips, the more bread-like the cheese sticks will be. The tighter you twist them, the more dense and crisp they will be. A loose twist will result in a softer, breadier stick."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Pastries"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n13g \nFat\n\n\n12g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699640405-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H-0egMF6uXKJ3ePmj8xc8depKq8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/690576-cherry-pepper-poppers-Lori-4x3-1-0cd3d7fb0b4640308fdc354cd6535969.jpg"
@@ -3204,59 +3361,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/53144/cherry-pepper-poppers/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Cherry Pepper Poppers</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n12 \n\n\nYield:\n12 stuffed peppers"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup extra virgin olive oil\n\n\n12  fresh cherry peppers\n\n\n6 ounces sharp provolone cheese, cubed\n\n\n6 ounces prosciutto, thinly sliced\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup extra virgin olive oil\n\n\n12  fresh cherry peppers\n\n\n6 ounces sharp provolone cheese, cubed\n\n\n6 ounces prosciutto, thinly sliced\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slice the tops off of the cherry peppers and carefully remove the seeds, keeping peppers whole. Wrap a cube of cheese with prosciutto, and stuff into a pepper. If there is still room inside the pepper, stuff in more prosciutto. Repeat with remaining peppers."},{"recipe_directions":"Place all of the stuffed peppers into a 1 quart jar - or one that your peppers will all fit into, and sprinkle salt over them. Pour in enough olive oil to cover the peppers. Cover, and let stand for 1 hour before eating. Refrigerate leftovers."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Antipasto Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"278\nCalories\n\n\n27g \nFat\n\n\n2g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699640409-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/x01jby3h-Vb4TuNgKTLWA73Mi_o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/453116-addfa84d49cc43969581b07ba07bbcbb.jpg"
@@ -3269,59 +3422,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/154209/quick-garlic-breadsticks/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Quick Garlic Breadsticks</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 breadsticks"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons grated Parmesan cheese\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon dried basil, crushed\n\n\n4  hot dog buns, split\n\n\n2 tablespoons margarine, softened"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons grated Parmesan cheese\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon dried basil, crushed\n\n\n4  hot dog buns, split\n\n\n2 tablespoons margarine, softened'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a rimmed baking sheet with parchment paper."},{"recipe_directions":"Stir Parmesan cheese, garlic powder, and basil together in a small bowl."},{"recipe_directions":"Place hot dog buns, cut-sides up, onto the prepared baking sheet. Spread margarine onto buns, then sprinkle Parmesan mixture over top."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Garlic Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"123\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699640417-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0vK-o1xnO-D_PdMDcgg3HruJEQQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/812313-5b522886e43f4a559815a322f67d85d6.jpg"
@@ -3334,59 +3483,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220663/easy-marinated-artichokes/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Easy Marinated Artichokes</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  lemon, juiced\n\n\n2 tablespoons extra-virgin olive oil\n\n\n2 cloves garlic, chopped (Optional)\n\n\n1 teaspoon Italian seasoning\n\n\n1 teaspoon salt, or to taste\n\n\n1 teaspoon ground black pepper, or to taste\n\n\n1 (14 ounce) can quartered artichoke hearts, drained"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  lemon, juiced\n\n\n2 tablespoons extra-virgin olive oil\n\n\n2 cloves garlic, chopped (Optional)\n\n\n1 teaspoon Italian seasoning\n\n\n1 teaspoon salt, or to taste\n\n\n1 teaspoon ground black pepper, or to taste\n\n\n1 (14 ounce) can quartered artichoke hearts, drained'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine lemon juice, oil, garlic, Italian seasoning, salt, and pepper in a jar. Seal the jar and shake until oil and lemon juice emulsify."},{"recipe_directions":"Remove the lid and add artichoke hearts. Seal again and shake until artichoke hearts are completely coated."},{"recipe_directions":"Serve immediately, or if you like them cold, chill in the refrigerator for at least 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"127\nCalories\n\n\n9g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699640422-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s7jgp3kaZdMA-d_FDRLWSG6lfVg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/1127027-prosciutto-e-melone-italian-ham-and-melon-Buckwheat-Queen-4x3-1-3c0b55bfef36411cb947ca1f1fea7658.jpg"
@@ -3400,59 +3545,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/106695/prosciutto-e-melone-italian-ham-and-melon/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Prosciutto e Melone (Italian Ham and Melon)</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  cantaloupe - seeded and cut into 8 wedges\n\n\n8 thin slices  prosciutto"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  cantaloupe - seeded and cut into 8 wedges\n\n\n8 thin slices  prosciutto'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Remove the flesh from the rind of the cantaloupe; wrap each piece of cantaloupe with a slice of prosciutto. Arrange on a platter and serve cold."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Antipasto Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"99\nCalories\n\n\n5g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699640427-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TFpN1wBTzkA2bkmwn91Hb9i4p7s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1853x1954:1855x1956):format(webp)/RM_22823_ItalianBreadUsingaBreadMachine_ddmfs_3x4_5693-4accd08d41424e29aa8e0ccec2b79104.jpg"
@@ -3466,59 +3607,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22823/italian-bread-using-a-bread-machine/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Italian Bread Using a Bread Machine</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 2 hrs 10 mins\n\n\nTotal Time:\n 3 hrs 5 mins\n\n\nServings:\n20 \n\n\nYield:\n2 1-pound loaves"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups warm water (110 degrees F/45 degrees C)\n\n\n1 ½ teaspoons olive oil\n\n\n4 cups unbleached all-purpose flour\n\n\n1 tablespoon light brown sugar\n\n\n1 ½ teaspoons salt\n\n\n1 (.25 ounce) package active dry yeast\n\n\n2 tablespoons cornmeal\n\n\n1 large egg\n\n\n1 tablespoon water"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups warm water (110 degrees F/45 degrees C)\n\n\n1 ½ teaspoons olive oil\n\n\n4 cups unbleached all-purpose flour\n\n\n1 tablespoon light brown sugar\n\n\n1 ½ teaspoons salt\n\n\n1 (.25 ounce) package active dry yeast\n\n\n2 tablespoons cornmeal\n\n\n1 large egg\n\n\n1 tablespoon water'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place 1 1/3 cups warm water, olive oil, flour, brown sugar, salt, and yeast into a bread machine in the order listed, or follow the order recommended by your manufacturer if different. Run the Dough cycle, about 90 minutes."},{"recipe_directions":"Sprinkle cornmeal onto a cutting board. Punch down dough, turn out onto a lightly floured surface, and form into two loaves."},{"recipe_directions":"Place loaves, seam-side down, onto the cutting board; cover with a damp cloth and let rise until doubled in volume, about 40 minutes."},{"recipe_directions":"Meanwhile, preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Beat egg and 1 tablespoon water together in a small bowl; brush over risen loaves."},{"recipe_directions":"Use a sharp knife to quickly cut one long slash down the center of each loaf."},{"recipe_directions":"Gently shake the cutting board to make sure the loaves are not sticking; use a spatula or pastry knife to loosen them if necessary. Slide loaves onto a baking sheet with a quick but careful motion."},{"recipe_directions":"Bake in the preheated oven until loaves are golden brown and sound hollow when tapped on the bottom, 30 to 35 minutes."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"White Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"105\nCalories\n\n\n1g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699640431-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OjZ3Cy1FXsVCQ0OJyfksYCzQxzc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/21060_ToastedGarlicBread-DDMFS-074-4x3-4f05bc2c7cfc433e9c4d33e16a5b4e34.jpg"
@@ -3532,59 +3669,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21060/toasted-garlic-bread/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Toasted Garlic Bread</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (1 pound) loaf Italian bread\n\n\n5 tablespoons butter, softened\n\n\n3 cloves garlic, crushed\n\n\n2 teaspoons extra virgin olive oil\n\n\n1 teaspoon dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (1 pound) loaf Italian bread\n\n\n5 tablespoons butter, softened\n\n\n3 cloves garlic, crushed\n\n\n2 teaspoons extra virgin olive oil\n\n\n1 teaspoon dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Set an oven rack about 6 inches from the heat source and preheat the oven's broiler. Cut loaf into ten 1-inch slices."},{"recipe_directions":"Mix butter, garlic, oil, oregano, salt, and pepper together in a bowl; spread butter mixture on one side of each slice of bread; arrange bread slices, butter-side up, in a single layer on a baking sheet."},{"recipe_directions":"Cook under the preheated broiler until slightly brown, checking frequently so they do not burn, about 3 minutes."},{"recipe_directions":"Top bread slices with cheese and return to broiler until cheese is slightly brown and melted, about 2 minutes."},{"recipe_directions":"Serve hot."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Garlic Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"213\nCalories\n\n\n10g \nFat\n\n\n23g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699640435-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lgFskxK8q3RQZQckEroG3dy6JJc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6749-ciabatta-ddmfs-1X1-5759-fe73a028a6c54404a1c6918b7c88dd12.jpg"
@@ -3598,59 +3731,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/6749/ciabatta/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Ciabatta</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n1 day 20 mins\n\n\nTotal Time:\n1 day 1 hr\n\n\nServings:\n15 \n\n\nYield:\n2 loaves"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons warm water (110 degrees F/45 degrees C)\n\n\n⅛ teaspoon active dry yeast\n\n\n1 cup bread flour\n\n\n⅓ cup warm water"},{"recipe_ingredients":"2 tablespoons warm milk (110 degrees F/45 degrees C)\n\n\n½ teaspoon active dry yeast\n\n\n2 cups bread flour\n\n\n⅔ cup warm water\n\n\n1 tablespoon olive oil\n\n\n1 ½ teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons warm water (110 degrees F/45 degrees C)\n\n\n⅛ teaspoon active dry yeast\n\n\n1 cup bread flour\n\n\n⅓ cup warm water'}, {'recipe_ingredients': '2 tablespoons warm milk (110 degrees F/45 degrees C)\n\n\n½ teaspoon active dry yeast\n\n\n2 cups bread flour\n\n\n⅔ cup warm water\n\n\n1 tablespoon olive oil\n\n\n1 ½ teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the sponge: Stir warm water and yeast together in a small bowl. Let stand for 5 minutes, or until creamy."},{"recipe_directions":"Combine bread flour and warm water in a large bowl; stir in yeast mixture for 4 minutes. Cover with plastic wrap and let sponge stand at room temperature for at least 12 hours and up to 1 day."},{"recipe_directions":"Make the bread: Combine warm milk and yeast together in a small bowl. Let stand for 5 minutes, or until creamy."},{"recipe_directions":"Transfer milk-yeast mixture to the bowl of a stand mixer fitted with a dough hook. Add sponge, bread flour, warm water, and oil; blend until flour is just moistened. Add salt and mix until dough is smooth and elastic, about 8 minutes."},{"recipe_directions":"Scrape dough into an oiled bowl and cover with plastic wrap. Let dough rise at room temperature until doubled in bulk, about 1 1/2 hours. The dough will be sticky and full of air bubbles."},{"recipe_directions":"Turn dough out onto a well-floured work surface and cut in half. Transfer each half to a parchment sheet and form into an irregular oval about 9 inches long. Dimple loaves with floured fingers and dust tops with flour."},{"recipe_directions":"Cover loaves with a dampened kitchen towel. Let loaves rise at room temperature until almost doubled in bulk, 1 1/2 to 2 hours."},{"recipe_directions":"At least 45 minutes before baking ciabatta, place a baking stone on the oven rack in the lowest position in the oven; preheat the oven to 425 F (220 degrees C)."},{"recipe_directions":"Transfer 1 loaf on its parchment to a rimless baking sheet with a long side of the loaf parallel to the far edge of the baking sheet. Line up the far edge of the baking sheet with the far edge of the baking stone in the preheated oven and tilt to slide the loaf with parchment onto the back half of the stone. Transfer the remaining loaf to the front half of the stone in a similar manner. Bake ciabatta loaves until just golden, about 20 minutes. Cool loaves on a wire rack."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"White Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"96\nCalories\n\n\n1g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699640439-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eVY8sQRHZT3c_Odq-KX_S-k7DX8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/212896-caprese-appetizer-ddmfs-4X3-0554-4a0a54607c45497ca348aea796fe6185.jpg"
@@ -3664,59 +3793,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212896/caprese-appetizer/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Best Caprese Skewers</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"20  grape tomatoes\n\n\n10 ounces mozzarella cheese, cubed\n\n\n2 tablespoons extra virgin olive oil\n\n\n2 tablespoons fresh basil leaves, chopped\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n20  toothpicks"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '20  grape tomatoes\n\n\n10 ounces mozzarella cheese, cubed\n\n\n2 tablespoons extra virgin olive oil\n\n\n2 tablespoons fresh basil leaves, chopped\n\n\n1 pinch salt\n\n\n1 pinch ground black pepper\n\n\n20  toothpicks'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Toss tomatoes, mozzarella cheese, olive oil, basil, salt, and pepper together in a bowl until well coated."},{"recipe_directions":"Skewer one tomato and one piece of mozzarella cheese on each toothpick."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Antipasto Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"104\nCalories\n\n\n7g \nFat\n\n\n2g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699640444-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Tn84Kp4BAGxpYGgof9yQ1O9kDVg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/17918-focaccia-bread-DDMFS-4x3-6fd208e7c12b493fbfde9c643df714be.jpg"
@@ -3730,59 +3855,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17918/focaccia-bread/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Focaccia Bread</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ¾ cups all-purpose flour\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon dried thyme\n\n\n½ teaspoon dried basil\n\n\n1 pinch ground black pepper\n\n\n1 cup water\n\n\n1 tablespoon vegetable oil\n\n\n2 tablespoons olive oil\n\n\n1 cup mozzarella\n\n\n1 tablespoon grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¾ cups all-purpose flour\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon dried thyme\n\n\n½ teaspoon dried basil\n\n\n1 pinch ground black pepper\n\n\n1 cup water\n\n\n1 tablespoon vegetable oil\n\n\n2 tablespoons olive oil\n\n\n1 cup mozzarella\n\n\n1 tablespoon grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This focaccia bread recipe is perfect for beginner bread bakers and seasoned pros alike."},{"recipe_directions":"Focaccia is a leavened flat bread. The oven-baked Italian dish can be served as a side or used as sandwich bread. It’s traditionally made with flour, yeast, oil, water, and salt. Some recipes, such as this one, are flavored with seasonings and topped with cheese."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you’ll need to make this homemade focaccia bread recipe:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make this top-rated focaccia recipe:"},{"recipe_directions":"Focaccia is a wonderful accompaniment to all your favorite Italian entrees, from Italian Spaghetti Sauce with Meatballs to Pasta e Fagioli. For more delicious serving inspiration, explore our entire collection of Italian Recipes."},{"recipe_directions":"Store focaccia in storage wrap or in an airtight container at room temperature for up to three days."},{"recipe_directions":"Reheat the focaccia bread in an oven preheated to 375 degrees F. It should be heated through and crispy after about 10 minutes."},{"recipe_directions":"Yes, you can freeze focaccia for up to one month. Cut into squares first so you can thaw just what you’ll need. To prevent sticking, place a square of parchment paper between each slice."},{"recipe_directions":"“Added olives and sprayed olive oil on the toppings before and after baking,” says Northern Russ. “Smells and tastes fantastic.”"},{"recipe_directions":"“I love this recipe,” raves STTASHA. “So easy and good. I add extra herbs and garlic, and I also put a few veggies on top. Sooo good, I've been using this recipe for years!”"},{"recipe_directions":"“Absolutely delicious,” according to JULIEMC001. “So easy to make. I used kosher salt on the top before baking and it was perfect. This is a keeper.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Combine flour, yeast, salt, sugar, garlic powder, oregano, thyme, basil, and black pepper in a large bowl. Add water and vegetable oil, then mix until dough comes together."},{"recipe_directions":"Turn dough out onto a lightly floured surface and knead until smooth and elastic."},{"recipe_directions":"Lightly oil a large bowl; place the dough in the bowl and turn to coat with oil. Cover with a clean, damp cloth and let rise in a warm place for 20 minutes."},{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Lightly grease a baking sheet."},{"recipe_directions":"Punch dough down and place on prepared baking sheet. Pat into a 1/2 inch thick rectangle. Brush top with olive oil and sprinkle with mozzarella and Parmesan cheese."},{"recipe_directions":"Bake in the preheated until golden brown, about 15 minutes."},{"recipe_directions":"Cut into 12 pieces and serve warm."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"},{"recipe_tags":"Bread"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"171\nCalories\n\n\n6g \nFat\n\n\n23g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699640447-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/USlGBQlxosM9lSRBW8n4HrLvly0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/222659-tomato-mozzarella-salad-1x1-338-copy-9d7cf1150b9349bf9fa5813d4bdd82cb.jpg"
@@ -3796,59 +3917,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222659/tomato-mozzarella-salad/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Tomato Mozzarella Salad</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large tomatoes, sliced\n\n\n8 ounces mozzarella cheese, sliced\n\n\n¼ cup olive oil\n\n\n¼ cup balsamic vinegar\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n¼ cup minced fresh basil"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large tomatoes, sliced\n\n\n8 ounces mozzarella cheese, sliced\n\n\n¼ cup olive oil\n\n\n¼ cup balsamic vinegar\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n¼ cup minced fresh basil'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place tomato slices, alternating with mozzarella slices, on a large serving platter."},{"recipe_directions":"Combine oil, balsamic vinegar, salt, and pepper in a jar with a tight-fitting lid; shake well."},{"recipe_directions":"Drizzle over tomatoes and mozzarella; sprinkle with basil."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n15g \nFat\n\n\n6g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699640452-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OeZ6pNpEsoDOIbFGuzoFkUlNHfw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/216077-garlic-bread-spread-step-beauty-1x1-BP-3172-1e39e3d9b0614309bb5a447847a10c77.jpg"
@@ -3862,59 +3979,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216077/garlic-bread-spread/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Garlic Bread Spread</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter, softened\n\n\n¼ cup grated Parmesan cheese\n\n\n2 cloves garlic, minced\n\n\n¼ teaspoon dried marjoram\n\n\n¼ teaspoon dried basil\n\n\n¼ teaspoon fines herbs\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried parsley, or to taste\n\n\n  ground black pepper to taste\n\n\n1 loaf unsliced Italian bread"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter, softened\n\n\n¼ cup grated Parmesan cheese\n\n\n2 cloves garlic, minced\n\n\n¼ teaspoon dried marjoram\n\n\n¼ teaspoon dried basil\n\n\n¼ teaspoon fines herbs\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried parsley, or to taste\n\n\n  ground black pepper to taste\n\n\n1 loaf unsliced Italian bread'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather ingredients and preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix butter, Parmesan cheese, garlic, marjoram, basil, fines herbs, oregano, parsley, and pepper together in a bowl until thoroughly combined."},{"recipe_directions":"Slice Italian bread loaf in half lengthwise; spread each half generously with the garlic butter mixture. Transfer onto a baking sheet."},{"recipe_directions":"Bake on the top rack of the preheated oven until butter mixture melts and bubbles, about 10 to 15 minutes. Turn on the oven's broiler and broil until the bread is your desired shade of golden brown, 1 to 2 more minutes."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Garlic Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"274\nCalories\n\n\n12g \nFat\n\n\n34g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699640456-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2ma8xrWLaULw9cCGx8WcLzHHF8c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/797993-d6d41b02c0a9467785575745de2558c8.jpg"
@@ -3927,59 +4040,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/75133/roasted-garlic-bread/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Roasted Garlic Bread</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 heads  garlic\n\n\n2 tablespoons olive oil\n\n\n1 (1 pound) loaf Italian bread\n\n\n½ cup butter, softened\n\n\n2 tablespoons grated Parmesan cheese (Optional)\n\n\n1 tablespoon chopped fresh parsley (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 heads  garlic\n\n\n2 tablespoons olive oil\n\n\n1 (1 pound) loaf Italian bread\n\n\n½ cup butter, softened\n\n\n2 tablespoons grated Parmesan cheese (Optional)\n\n\n1 tablespoon chopped fresh parsley (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Slice the tops off of garlic heads, so the tip of each clove is exposed. Place garlic heads, cut-sides up, on a baking sheet; drizzle tops with olive oil."},{"recipe_directions":"Bake in the preheated oven until garlic is soft, about 30 minutes."},{"recipe_directions":"Set the oven to broil."},{"recipe_directions":"Slice bread loaf in half horizontally; place cut-side up on a baking sheet."},{"recipe_directions":"Squeeze garlic cloves from their skins into a medium bowl. Stir in butter, Parmesan cheese, and parsley until well blended. Spread onto the cut sides of bread."},{"recipe_directions":"Broil bread until toasted, about 5 minutes."},{"recipe_directions":"Refer to our guide to buy the best garlic press for your kitchen, and make cooking all your favorite recipes easier."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Garlic Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"322\nCalories\n\n\n17g \nFat\n\n\n35g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699640462-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jR_J2LSDzTE6X1WwL930toFYHfc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/23596-fried-mozzarella-cheese-sticks-DDMFS-4x3-842a0eaebf6b435a8d3a8b04325e13eb.jpg"
@@ -3993,59 +4102,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23596/fried-mozzarella-cheese-sticks/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Fried Mozzarella Cheese Sticks</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs, beaten\n\n\n¼ cup water\n\n\n1 ½ cups Italian seasoned bread crumbs\n\n\n½ teaspoon garlic salt\n\n\n⅔ cup all-purpose flour\n\n\n⅓ cup cornstarch\n\n\n2 cups oil for frying, or as needed\n\n\n1 (16 ounce) package mozzarella cheese sticks"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs, beaten\n\n\n¼ cup water\n\n\n1 ½ cups Italian seasoned bread crumbs\n\n\n½ teaspoon garlic salt\n\n\n⅔ cup all-purpose flour\n\n\n⅓ cup cornstarch\n\n\n2 cups oil for frying, or as needed\n\n\n1 (16 ounce) package mozzarella cheese sticks'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Did you know you don't have to go out to enjoy restaurant-worthy mozzarella sticks? Well, you don't! With this top-rated recipe, you can make irresistible fried mozzarella cheese sticks in the comfort of your own home."},{"recipe_directions":"You'll find the full step-by-step recipe below, but here's what you can expect when you make these fried mozzarella sticks:"},{"recipe_directions":"In three separate bowls: Mix the eggs and water, the bread crumbs and garlic salt, and flour and cornstarch."},{"recipe_directions":"Heat the oil to 365 degrees F in a heavy saucepan. One at a time, coat each mozzarella stick in the flour mixture, then the egg mixture, then in the garlic-spiked bread crumbs. Drop the sticks into the hot oil and fry for about 30 seconds, or until golden-brown. Drain the fried mozzarella sticks on paper towels."},{"recipe_directions":"Of course, the most popular dipping sauce to pair with mozzarella cheese sticks is marinara (make our simple Marinara Dipping Sauce or buy jarred sauce at the store). Not into marinara? Shake things up with one of these fun ideas:"},{"recipe_directions":"Sriracha Aioli\nSouthwest Dipping Sauce\nA Very Popular BBQ Sauce\nComeback Sauce\nGarlic Aioli"},{"recipe_directions":"Explore our entire collection of Sauces and Condiments."},{"recipe_directions":"Store (completely cooled) homemade mozzarella sticks in an airtight container in the fridge for up to five days. Line the container with paper towels to absorb excess oil."},{"recipe_directions":"Yes, you can freeze mozzarella sticks. Allow them to cool completely, arrange them in a single layer on a baking sheet, cover, and freeze for a few hours or overnight. Once the sticks are frozen, transfer them to a zip-top bag labeled with the date. Freeze for up to three months."},{"recipe_directions":"Reheat refrigerated or frozen mozzarella sticks in the oven. To reheat refrigerated cheese sticks, place them in an oven preheated to 350 degrees F for about 5 minutes, or until heated through. To reheat frozen cheese sticks, place them in an oven preheated to 450 degrees F for 10-15 minutes, or until heated through."},{"recipe_directions":"\"Great as a party snack or starter,\" according to one Allrecipes community member. \"I found that if you put them all in at once they tend to stick together in one big fried-cheese clump. So if you want them to keep their 'log' shape you have to cook only one or two at a time and make sure they don't touch while cooking.\""},{"recipe_directions":"\"These are great,\" raves roxylovin. \"Super easy to do and man, what a hit! I followed some other ideas of double coating and cutting the cheese sticks in half before doing the dipping. I didn't have enough oil to fully dip the sticks into, it ended up covering half of the stick so I turned with a fork so both sides were golden. Will be making it again!\""},{"recipe_directions":"\"These were really good,\" says Faith W. \"They are my daughter's favorite, so I've made them a few times. They are MUCH easier to work with if the cheese sticks are room temperature instead of cold when you egg and bread them. GREAT RECIPE! Thanks!!!\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Whisk water and eggs together in a small bowl. Mix bread crumbs and garlic salt together in a medium bowl. Blend flour and cornstarch together in a third bowl."},{"recipe_directions":"Heat oil to 365 degrees F (185 degrees C) in a large, heavy saucepan."},{"recipe_directions":"Dredge a mozzarella stick in flour; shake off excess. Dip into egg mixture. Lift up so excess egg drips back in the bowl. Press into bread crumbs to coat. Place breaded mozzarella stick on a plate or wire rack. Repeat with remaining mozzarella sticks."},{"recipe_directions":"Use a spider spoon or a pair of tongs to lower 3 to 4 mozzarella sticks into the hot oil. Fry until golden brown, about 30 seconds. Remove from heat and drain on paper towels. Repeat to fry remaining mozzarella sticks."},{"recipe_directions":"Serve hot and enjoy!"},{"recipe_directions":"Nutrition data for this recipe includes the full amount of breading ingredients. The actual amount of breading consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Cheese"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"789\nCalories\n\n\n67g \nFat\n\n\n30g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699640465-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1793/world-cuisine/european/italian/appetizers/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JZypAo93wyHw3DHTRFBCJwyyHKk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/54165-balsamic-bruschetta-DDMFS-4x3-e2b55b5ca39b4c1783e524a2461634ea.jpg"
@@ -4059,42 +4164,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/54165/balsamic-bruschetta/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Balsamic Bruschetta</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 bruschetta"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 loaf French bread, cut into 1/4-inch slices\n\n\n1 tablespoon extra-virgin olive oil\n\n\n8  roma (plum) tomatoes, diced\n\n\n⅓ cup chopped fresh basil\n\n\n1 ounce Parmesan cheese, freshly grated\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon good quality balsamic vinegar\n\n\n2 teaspoons extra-virgin olive oil\n\n\n¼ teaspoon kosher salt\n\n\n¼ teaspoon freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 loaf French bread, cut into 1/4-inch slices\n\n\n1 tablespoon extra-virgin olive oil\n\n\n8  roma (plum) tomatoes, diced\n\n\n⅓ cup chopped fresh basil\n\n\n1 ounce Parmesan cheese, freshly grated\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon good quality balsamic vinegar\n\n\n2 teaspoons extra-virgin olive oil\n\n\n¼ teaspoon kosher salt\n\n\n¼ teaspoon freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This top-rated bruschetta recipe proves that summertime gives you perfectly ripe and juicy tomatoes, one of the best ways to enjoy them is also one of the easiest."},{"recipe_directions":"Bruschetta (pronounced brew-SKET-tah) is an Italian appetizer or antipasti that starts with a base of toasted or grilled bread. The bread is then served warm either with a topping spooned over or with a topping on the side so each person can build their own bruschetta. Bruschetta is meant to be served as a hand-held finger food, large enough for one or two bites."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"The best bread for bruschetta has a sturdy crust and is firm enough to hold the bruschetta topping. Choose a loaf of Italian bread, such as ciabatta, for a more traditional bruschetta. This recipe uses slices of French bread, like a baguette. Slice the bread on the diagonal at least ¼-inch thick or more to make an oval shape."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here are a few of our favorite tips for making the best bruschetta every time:"},{"recipe_directions":"· Quality counts: The beauty of a simple recipe like bruschetta is that it showcases the flavor of the individual ingredients. For this recipe, you can really taste the difference when you use ripe tomatoes and fresh (not dried) basil; the best olive oil and balsamic vinegar you can afford, and hand-grated Parmesan cheese instead of pre-packaged grated cheese.\n· Add flavor with garlic: As an alternative to adding minced raw garlic to the tomato mixture, cut a peeled clove of garlic in half lengthwise and lightly rub the cut side over the slightly roughened surface of the toasted bread to impart a hint of garlic flavor. Rub on a little more garlic for a stronger flavor, if you wish. But watch out: A little garlic goes a long way.\n· Be patient: Make the tomato mixture and let it sit for a couple of hours so the flavors can develop more complexity. Yes, the tomatoes may give off a lot of juice as they marinate, but if you think the mixture is too juicy come serving time, simply use a slotted spoon to lift out the bruschetta topping as you spoon it over the bread. Don't toss the liquid, though — lots of people love to dip into it with extra bread. If you're going to top the bread first before serving, save that step until the last minute so the bread doesn't get soggy as it sits."},{"recipe_directions":"Make it a meal by serving this classic Italian appetizer with our collection of Quick and Easy Italian Dinners Ready in 45 Minutes or Less. Here's a preview of what you'll find:"},{"recipe_directions":"· Italian Sausage, Peppers, and Onions\n· Shrimp Scampi with Pasta\n· Crispy Baked Chicken with Giardiniera"},{"recipe_directions":"\"I made this for a bridal shower and it was a hit,\" says libs. \"I prepared the tomato mix the night before and toasted the bread about 15 minutes before the party started. I liked the cold mix on the warm bread. I also appreciated that this could be prepared the day before!\""},{"recipe_directions":"\"Excellent,\" raves MELSY. \"Served on top of toasted whole wheat baguette slices that were brushed with olive oil and garlic. I also added a little extra basil as I love the flavor. Have also served this on top of slices of fresh mozzarella cheese...equally as good!\""},{"recipe_directions":"\"I used two 14-ounce cans of diced tomatoes instead of 8 Roma tomatoes,\" according to blue eyed CC. \"Added about 1/4 cup of chopped red onion, too. Everyone loved it. No one could believe that I used canned tomatoes either!\""},{"recipe_directions":"Editorial contributions by Vanessa Greaves and Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Brush bread slices on both sides lightly with 1 tablespoon oil and place on large baking sheet. Toast bread until golden, 5 to 10 minutes, turning halfway through."},{"recipe_directions":"Meanwhile, toss together tomatoes, basil, Parmesan cheese, and garlic in a bowl."},{"recipe_directions":"Mix in balsamic vinegar, 2 teaspoons olive oil, kosher salt, and pepper."},{"recipe_directions":"Spoon tomato mixture onto toasted bread slices."},{"recipe_directions":"Serve immediately and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Bruschetta Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"197\nCalories\n\n\n4g \nFat\n\n\n33g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>